--- a/Code/Results/Cases/Case_1_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_10/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.85804517130435</v>
+        <v>11.85804517130437</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.660083628527775</v>
+        <v>2.660083628527684</v>
       </c>
       <c r="E2">
-        <v>13.67399089601039</v>
+        <v>13.6739908960106</v>
       </c>
       <c r="F2">
-        <v>35.28452924980239</v>
+        <v>35.28452924980244</v>
       </c>
       <c r="G2">
-        <v>27.17538502978902</v>
+        <v>27.17538502978906</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>35.0502543929327</v>
+        <v>35.05025439293275</v>
       </c>
       <c r="K2">
-        <v>20.77367280848979</v>
+        <v>20.77367280848974</v>
       </c>
       <c r="L2">
-        <v>18.64410296048907</v>
+        <v>18.64410296048905</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.11921584807666</v>
+        <v>11.11921584807667</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.747253866128458</v>
+        <v>2.747253866128521</v>
       </c>
       <c r="E3">
-        <v>13.19642827968332</v>
+        <v>13.19642827968335</v>
       </c>
       <c r="F3">
-        <v>33.03567861400244</v>
+        <v>33.03567861400249</v>
       </c>
       <c r="G3">
-        <v>25.55862820319804</v>
+        <v>25.55862820319808</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>32.68515112989564</v>
+        <v>32.68515112989567</v>
       </c>
       <c r="K3">
-        <v>19.32291569151606</v>
+        <v>19.32291569151608</v>
       </c>
       <c r="L3">
-        <v>17.37737802132254</v>
+        <v>17.37737802132257</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.66649036943149</v>
+        <v>10.66649036943152</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.808631949627931</v>
+        <v>2.808631949627921</v>
       </c>
       <c r="E4">
-        <v>12.89794748245981</v>
+        <v>12.8979474824599</v>
       </c>
       <c r="F4">
-        <v>31.64564319221852</v>
+        <v>31.64564319221864</v>
       </c>
       <c r="G4">
-        <v>24.56983247474901</v>
+        <v>24.56983247474911</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.47826189908736</v>
+        <v>10.47826189908739</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.835348667985062</v>
+        <v>2.83534866798498</v>
       </c>
       <c r="E5">
-        <v>12.7750286279578</v>
+        <v>12.7750286279579</v>
       </c>
       <c r="F5">
-        <v>31.07709570337055</v>
+        <v>31.07709570337058</v>
       </c>
       <c r="G5">
-        <v>24.16805722880472</v>
+        <v>24.16805722880476</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>30.52250938235364</v>
+        <v>30.52250938235358</v>
       </c>
       <c r="K5">
-        <v>17.99779336987709</v>
+        <v>17.99779336987706</v>
       </c>
       <c r="L5">
-        <v>16.220283841382</v>
+        <v>16.22028384138194</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -570,16 +570,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.839880902352971</v>
+        <v>2.839880902352986</v>
       </c>
       <c r="E6">
-        <v>12.75454190923499</v>
+        <v>12.75454190923506</v>
       </c>
       <c r="F6">
-        <v>30.98257244108167</v>
+        <v>30.98257244108166</v>
       </c>
       <c r="G6">
-        <v>24.10142115783503</v>
+        <v>24.10142115783504</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>30.41527591534752</v>
+        <v>30.41527591534757</v>
       </c>
       <c r="K6">
-        <v>17.93211592218598</v>
+        <v>17.93211592218597</v>
       </c>
       <c r="L6">
-        <v>16.16293974030411</v>
+        <v>16.16293974030412</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.66396682435799</v>
+        <v>10.663966824358</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.808985681669083</v>
+        <v>2.808985681669029</v>
       </c>
       <c r="E7">
-        <v>12.89629489600232</v>
+        <v>12.89629489600241</v>
       </c>
       <c r="F7">
-        <v>31.63798361526704</v>
+        <v>31.63798361526708</v>
       </c>
       <c r="G7">
-        <v>24.56440892762492</v>
+        <v>24.56440892762496</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>31.15306985229197</v>
+        <v>31.153069852292</v>
       </c>
       <c r="K7">
-        <v>18.38404191599613</v>
+        <v>18.38404191599615</v>
       </c>
       <c r="L7">
-        <v>16.55753891458146</v>
+        <v>16.55753891458147</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.58922654916786</v>
+        <v>11.58922654916785</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.688331208744777</v>
+        <v>2.688331208744665</v>
       </c>
       <c r="E8">
-        <v>13.51043193747351</v>
+        <v>13.51043193747352</v>
       </c>
       <c r="F8">
-        <v>34.51111570917115</v>
+        <v>34.5111157091712</v>
       </c>
       <c r="G8">
-        <v>26.6171879506494</v>
+        <v>26.61718795064943</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>34.2493744080018</v>
+        <v>34.24937440800181</v>
       </c>
       <c r="K8">
-        <v>20.28219741016874</v>
+        <v>20.28219741016873</v>
       </c>
       <c r="L8">
         <v>18.21500821916421</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.52802857336193</v>
+        <v>13.52802857336188</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.529058295414198</v>
+        <v>2.529058295414232</v>
       </c>
       <c r="E9">
-        <v>14.67292042161161</v>
+        <v>14.67292042161162</v>
       </c>
       <c r="F9">
-        <v>40.33274484532546</v>
+        <v>40.33274484532549</v>
       </c>
       <c r="G9">
-        <v>30.98872838866109</v>
+        <v>30.98872838866112</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>39.77178581781996</v>
+        <v>39.77178581782005</v>
       </c>
       <c r="K9">
-        <v>23.67658747611356</v>
+        <v>23.67658747611366</v>
       </c>
       <c r="L9">
-        <v>21.17685197423335</v>
+        <v>21.17685197423341</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.84596425928458</v>
+        <v>14.84596425928459</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.624072063974531</v>
+        <v>2.62407206397449</v>
       </c>
       <c r="E10">
-        <v>15.50384811802524</v>
+        <v>15.50384811802536</v>
       </c>
       <c r="F10">
-        <v>44.68726496216846</v>
+        <v>44.68726496216851</v>
       </c>
       <c r="G10">
-        <v>34.41199914078031</v>
+        <v>34.41199914078037</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>43.52208035590516</v>
+        <v>43.52208035590526</v>
       </c>
       <c r="K10">
         <v>25.9903311778261</v>
       </c>
       <c r="L10">
-        <v>23.19203495043638</v>
+        <v>23.19203495043639</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.42201611788005</v>
+        <v>15.42201611788007</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.799856482383766</v>
+        <v>2.799856482383606</v>
       </c>
       <c r="E11">
-        <v>15.87818599275057</v>
+        <v>15.87818599275056</v>
       </c>
       <c r="F11">
-        <v>46.65554995515922</v>
+        <v>46.65554995515938</v>
       </c>
       <c r="G11">
-        <v>35.95980611347942</v>
+        <v>35.95980611347952</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>45.16928019496385</v>
+        <v>45.16928019496384</v>
       </c>
       <c r="K11">
-        <v>27.00914583572969</v>
+        <v>27.00914583572972</v>
       </c>
       <c r="L11">
-        <v>24.0779713159535</v>
+        <v>24.07797131595353</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.63697990581343</v>
+        <v>15.63697990581334</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.86724428087492</v>
+        <v>2.867244280874839</v>
       </c>
       <c r="E12">
-        <v>16.01959516951232</v>
+        <v>16.01959516951258</v>
       </c>
       <c r="F12">
-        <v>47.40039400031802</v>
+        <v>47.40039400031813</v>
       </c>
       <c r="G12">
-        <v>36.54565082906291</v>
+        <v>36.54565082906297</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>45.78536592158658</v>
+        <v>45.78536592158667</v>
       </c>
       <c r="K12">
-        <v>27.39063452294209</v>
+        <v>27.39063452294214</v>
       </c>
       <c r="L12">
-        <v>24.40944289774301</v>
+        <v>24.40944289774299</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -839,13 +839,13 @@
         <v>2.852690804774973</v>
       </c>
       <c r="E13">
-        <v>15.98915188263002</v>
+        <v>15.98915188262998</v>
       </c>
       <c r="F13">
-        <v>47.23997627400671</v>
+        <v>47.23997627400681</v>
       </c>
       <c r="G13">
-        <v>36.4194707463836</v>
+        <v>36.41947074638366</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,10 +854,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>45.65300796008555</v>
+        <v>45.6530079600855</v>
       </c>
       <c r="K13">
-        <v>27.30865643252493</v>
+        <v>27.30865643252492</v>
       </c>
       <c r="L13">
         <v>24.33822566138171</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.43976366535515</v>
+        <v>15.43976366535514</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.805382709734209</v>
+        <v>2.805382709734253</v>
       </c>
       <c r="E14">
-        <v>15.88982543680997</v>
+        <v>15.88982543680988</v>
       </c>
       <c r="F14">
-        <v>46.716830059675</v>
+        <v>46.71683005967486</v>
       </c>
       <c r="G14">
-        <v>36.00800225689553</v>
+        <v>36.00800225689542</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>45.22011468033692</v>
+        <v>45.2201146803369</v>
       </c>
       <c r="K14">
-        <v>27.0406141984171</v>
+        <v>27.04061419841709</v>
       </c>
       <c r="L14">
         <v>24.10531947972001</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.34682968790061</v>
+        <v>15.34682968790063</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.776519017433352</v>
+        <v>2.776519017433326</v>
       </c>
       <c r="E15">
-        <v>15.82894677742526</v>
+        <v>15.82894677742527</v>
       </c>
       <c r="F15">
-        <v>46.39636717873597</v>
+        <v>46.39636717873587</v>
       </c>
       <c r="G15">
-        <v>35.75596678711017</v>
+        <v>35.75596678711012</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>44.95398165528105</v>
       </c>
       <c r="K15">
-        <v>26.87588623845748</v>
+        <v>26.87588623845746</v>
       </c>
       <c r="L15">
         <v>23.9621486050949</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.8078619508998</v>
+        <v>14.80786195089977</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.612687102825085</v>
+        <v>2.612687102825226</v>
       </c>
       <c r="E16">
-        <v>15.47932471923907</v>
+        <v>15.47932471923904</v>
       </c>
       <c r="F16">
-        <v>44.55848358022262</v>
+        <v>44.5584835802227</v>
       </c>
       <c r="G16">
-        <v>34.31074259767681</v>
+        <v>34.31074259767691</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>43.41331214285241</v>
+        <v>43.41331214285242</v>
       </c>
       <c r="K16">
-        <v>25.9231143048441</v>
+        <v>25.92311430484414</v>
       </c>
       <c r="L16">
-        <v>23.13355118437651</v>
+        <v>23.13355118437649</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.47134233831899</v>
+        <v>14.47134233831894</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.513415269057051</v>
+        <v>2.513415269057018</v>
       </c>
       <c r="E17">
-        <v>15.26401570477398</v>
+        <v>15.26401570477396</v>
       </c>
       <c r="F17">
-        <v>43.42860102640892</v>
+        <v>43.42860102640901</v>
       </c>
       <c r="G17">
-        <v>33.42241115663604</v>
+        <v>33.42241115663611</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>42.4536093127191</v>
+        <v>42.45360931271905</v>
       </c>
       <c r="K17">
-        <v>25.33033512411043</v>
+        <v>25.33033512411039</v>
       </c>
       <c r="L17">
-        <v>22.61762132382717</v>
+        <v>22.61762132382713</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.27556097610639</v>
+        <v>14.27556097610638</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.495978128190226</v>
+        <v>2.495978128190204</v>
       </c>
       <c r="E18">
-        <v>15.13981725162155</v>
+        <v>15.13981725162166</v>
       </c>
       <c r="F18">
-        <v>42.77743875726905</v>
+        <v>42.77743875726902</v>
       </c>
       <c r="G18">
-        <v>32.91049681252296</v>
+        <v>32.91049681252291</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>41.8960217326516</v>
+        <v>41.89602173265162</v>
       </c>
       <c r="K18">
-        <v>24.98617352085104</v>
+        <v>24.98617352085099</v>
       </c>
       <c r="L18">
-        <v>22.31794630787582</v>
+        <v>22.31794630787579</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.20888509999448</v>
+        <v>14.20888509999449</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.498139949322988</v>
+        <v>2.498139949322939</v>
       </c>
       <c r="E19">
-        <v>15.09769974816831</v>
+        <v>15.09769974816819</v>
       </c>
       <c r="F19">
-        <v>42.55671137661114</v>
+        <v>42.55671137661098</v>
       </c>
       <c r="G19">
-        <v>32.73697613943466</v>
+        <v>32.73697613943452</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>41.70625008776976</v>
+        <v>41.70625008776959</v>
       </c>
       <c r="K19">
-        <v>24.8690800744801</v>
+        <v>24.86908007448003</v>
       </c>
       <c r="L19">
-        <v>22.21596756886974</v>
+        <v>22.21596756886968</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.50739425360867</v>
+        <v>14.5073942536087</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.523941106420498</v>
+        <v>2.523941106420422</v>
       </c>
       <c r="E20">
-        <v>15.28697170364996</v>
+        <v>15.28697170365008</v>
       </c>
       <c r="F20">
-        <v>43.54900338615563</v>
+        <v>43.54900338615585</v>
       </c>
       <c r="G20">
-        <v>33.51706890242098</v>
+        <v>33.51706890242115</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>42.55634481971853</v>
+        <v>42.55634481971854</v>
       </c>
       <c r="K20">
-        <v>25.39376619910508</v>
+        <v>25.39376619910507</v>
       </c>
       <c r="L20">
-        <v>22.67284298863843</v>
+        <v>22.67284298863844</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.48421731289468</v>
+        <v>15.48421731289469</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.819254079586622</v>
+        <v>2.819254079586597</v>
       </c>
       <c r="E21">
-        <v>15.91900759198157</v>
+        <v>15.91900759198175</v>
       </c>
       <c r="F21">
-        <v>46.87049226529124</v>
+        <v>46.87049226529146</v>
       </c>
       <c r="G21">
-        <v>36.12885801630513</v>
+        <v>36.12885801630532</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>45.34746716373677</v>
+        <v>45.3474671637369</v>
       </c>
       <c r="K21">
-        <v>27.11945704851043</v>
+        <v>27.11945704851051</v>
       </c>
       <c r="L21">
-        <v>24.17383492333944</v>
+        <v>24.17383492333948</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.017181300913085</v>
+        <v>3.017181300913023</v>
       </c>
       <c r="E22">
-        <v>16.33020746341818</v>
+        <v>16.3302074634181</v>
       </c>
       <c r="F22">
-        <v>49.03921780614283</v>
+        <v>49.03921780614266</v>
       </c>
       <c r="G22">
-        <v>37.83491588333919</v>
+        <v>37.83491588333906</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>47.12738272597539</v>
+        <v>47.12738272597548</v>
       </c>
       <c r="K22">
-        <v>28.22247139997024</v>
+        <v>28.22247139997031</v>
       </c>
       <c r="L22">
-        <v>25.13167726323669</v>
+        <v>25.13167726323674</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.77493001881699</v>
+        <v>15.77493001881692</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.911013198236316</v>
+        <v>2.911013198236348</v>
       </c>
       <c r="E23">
-        <v>16.1108354555221</v>
+        <v>16.11083545552225</v>
       </c>
       <c r="F23">
-        <v>47.88138979875672</v>
+        <v>47.88138979875664</v>
       </c>
       <c r="G23">
-        <v>36.92400995258919</v>
+        <v>36.92400995258915</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>46.18115579982722</v>
+        <v>46.18115579982726</v>
       </c>
       <c r="K23">
-        <v>27.63584021145672</v>
+        <v>27.6358402114567</v>
       </c>
       <c r="L23">
-        <v>24.62241920504093</v>
+        <v>24.62241920504089</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.49110239816458</v>
+        <v>14.4911023981646</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.51918125117937</v>
+        <v>2.519181251179329</v>
       </c>
       <c r="E24">
-        <v>15.2765946001902</v>
+        <v>15.27659460019011</v>
       </c>
       <c r="F24">
-        <v>43.49457448802129</v>
+        <v>43.49457448802128</v>
       </c>
       <c r="G24">
-        <v>33.4742779538774</v>
+        <v>33.47427795387736</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>42.50991634980279</v>
+        <v>42.50991634980277</v>
       </c>
       <c r="K24">
-        <v>25.36509953026736</v>
+        <v>25.36509953026734</v>
       </c>
       <c r="L24">
-        <v>22.6478868355882</v>
+        <v>22.64788683558823</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.02067582081193</v>
+        <v>13.02067582081199</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.561508854882</v>
+        <v>2.561508854881974</v>
       </c>
       <c r="E25">
-        <v>14.36280724929218</v>
+        <v>14.36280724929216</v>
       </c>
       <c r="F25">
-        <v>38.7110012011756</v>
+        <v>38.71100120117564</v>
       </c>
       <c r="G25">
-        <v>29.71386752425309</v>
+        <v>29.71386752425312</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>38.33404093822854</v>
+        <v>38.33404093822865</v>
       </c>
       <c r="K25">
-        <v>22.79154498096896</v>
+        <v>22.79154498096902</v>
       </c>
       <c r="L25">
-        <v>20.40507166126784</v>
+        <v>20.40507166126792</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_10/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.85804517130437</v>
+        <v>11.85804517130435</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.660083628527684</v>
+        <v>2.660083628527775</v>
       </c>
       <c r="E2">
-        <v>13.6739908960106</v>
+        <v>13.67399089601039</v>
       </c>
       <c r="F2">
-        <v>35.28452924980244</v>
+        <v>35.28452924980239</v>
       </c>
       <c r="G2">
-        <v>27.17538502978906</v>
+        <v>27.17538502978902</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>35.05025439293275</v>
+        <v>35.0502543929327</v>
       </c>
       <c r="K2">
-        <v>20.77367280848974</v>
+        <v>20.77367280848979</v>
       </c>
       <c r="L2">
-        <v>18.64410296048905</v>
+        <v>18.64410296048907</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.11921584807667</v>
+        <v>11.11921584807666</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.747253866128521</v>
+        <v>2.747253866128458</v>
       </c>
       <c r="E3">
-        <v>13.19642827968335</v>
+        <v>13.19642827968332</v>
       </c>
       <c r="F3">
-        <v>33.03567861400249</v>
+        <v>33.03567861400244</v>
       </c>
       <c r="G3">
-        <v>25.55862820319808</v>
+        <v>25.55862820319804</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>32.68515112989567</v>
+        <v>32.68515112989564</v>
       </c>
       <c r="K3">
-        <v>19.32291569151608</v>
+        <v>19.32291569151606</v>
       </c>
       <c r="L3">
-        <v>17.37737802132257</v>
+        <v>17.37737802132254</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.66649036943152</v>
+        <v>10.66649036943149</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.808631949627921</v>
+        <v>2.808631949627931</v>
       </c>
       <c r="E4">
-        <v>12.8979474824599</v>
+        <v>12.89794748245981</v>
       </c>
       <c r="F4">
-        <v>31.64564319221864</v>
+        <v>31.64564319221852</v>
       </c>
       <c r="G4">
-        <v>24.56983247474911</v>
+        <v>24.56983247474901</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.47826189908739</v>
+        <v>10.47826189908736</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.83534866798498</v>
+        <v>2.835348667985062</v>
       </c>
       <c r="E5">
-        <v>12.7750286279579</v>
+        <v>12.7750286279578</v>
       </c>
       <c r="F5">
-        <v>31.07709570337058</v>
+        <v>31.07709570337055</v>
       </c>
       <c r="G5">
-        <v>24.16805722880476</v>
+        <v>24.16805722880472</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>30.52250938235358</v>
+        <v>30.52250938235364</v>
       </c>
       <c r="K5">
-        <v>17.99779336987706</v>
+        <v>17.99779336987709</v>
       </c>
       <c r="L5">
-        <v>16.22028384138194</v>
+        <v>16.220283841382</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -570,16 +570,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.839880902352986</v>
+        <v>2.839880902352971</v>
       </c>
       <c r="E6">
-        <v>12.75454190923506</v>
+        <v>12.75454190923499</v>
       </c>
       <c r="F6">
-        <v>30.98257244108166</v>
+        <v>30.98257244108167</v>
       </c>
       <c r="G6">
-        <v>24.10142115783504</v>
+        <v>24.10142115783503</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>30.41527591534757</v>
+        <v>30.41527591534752</v>
       </c>
       <c r="K6">
-        <v>17.93211592218597</v>
+        <v>17.93211592218598</v>
       </c>
       <c r="L6">
-        <v>16.16293974030412</v>
+        <v>16.16293974030411</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.663966824358</v>
+        <v>10.66396682435799</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.808985681669029</v>
+        <v>2.808985681669083</v>
       </c>
       <c r="E7">
-        <v>12.89629489600241</v>
+        <v>12.89629489600232</v>
       </c>
       <c r="F7">
-        <v>31.63798361526708</v>
+        <v>31.63798361526704</v>
       </c>
       <c r="G7">
-        <v>24.56440892762496</v>
+        <v>24.56440892762492</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>31.153069852292</v>
+        <v>31.15306985229197</v>
       </c>
       <c r="K7">
-        <v>18.38404191599615</v>
+        <v>18.38404191599613</v>
       </c>
       <c r="L7">
-        <v>16.55753891458147</v>
+        <v>16.55753891458146</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.58922654916785</v>
+        <v>11.58922654916786</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.688331208744665</v>
+        <v>2.688331208744777</v>
       </c>
       <c r="E8">
-        <v>13.51043193747352</v>
+        <v>13.51043193747351</v>
       </c>
       <c r="F8">
-        <v>34.5111157091712</v>
+        <v>34.51111570917115</v>
       </c>
       <c r="G8">
-        <v>26.61718795064943</v>
+        <v>26.6171879506494</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>34.24937440800181</v>
+        <v>34.2493744080018</v>
       </c>
       <c r="K8">
-        <v>20.28219741016873</v>
+        <v>20.28219741016874</v>
       </c>
       <c r="L8">
         <v>18.21500821916421</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.52802857336188</v>
+        <v>13.52802857336193</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.529058295414232</v>
+        <v>2.529058295414198</v>
       </c>
       <c r="E9">
-        <v>14.67292042161162</v>
+        <v>14.67292042161161</v>
       </c>
       <c r="F9">
-        <v>40.33274484532549</v>
+        <v>40.33274484532546</v>
       </c>
       <c r="G9">
-        <v>30.98872838866112</v>
+        <v>30.98872838866109</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>39.77178581782005</v>
+        <v>39.77178581781996</v>
       </c>
       <c r="K9">
-        <v>23.67658747611366</v>
+        <v>23.67658747611356</v>
       </c>
       <c r="L9">
-        <v>21.17685197423341</v>
+        <v>21.17685197423335</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.84596425928459</v>
+        <v>14.84596425928458</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.62407206397449</v>
+        <v>2.624072063974531</v>
       </c>
       <c r="E10">
-        <v>15.50384811802536</v>
+        <v>15.50384811802524</v>
       </c>
       <c r="F10">
-        <v>44.68726496216851</v>
+        <v>44.68726496216846</v>
       </c>
       <c r="G10">
-        <v>34.41199914078037</v>
+        <v>34.41199914078031</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>43.52208035590526</v>
+        <v>43.52208035590516</v>
       </c>
       <c r="K10">
         <v>25.9903311778261</v>
       </c>
       <c r="L10">
-        <v>23.19203495043639</v>
+        <v>23.19203495043638</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.42201611788007</v>
+        <v>15.42201611788005</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.799856482383606</v>
+        <v>2.799856482383766</v>
       </c>
       <c r="E11">
-        <v>15.87818599275056</v>
+        <v>15.87818599275057</v>
       </c>
       <c r="F11">
-        <v>46.65554995515938</v>
+        <v>46.65554995515922</v>
       </c>
       <c r="G11">
-        <v>35.95980611347952</v>
+        <v>35.95980611347942</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>45.16928019496384</v>
+        <v>45.16928019496385</v>
       </c>
       <c r="K11">
-        <v>27.00914583572972</v>
+        <v>27.00914583572969</v>
       </c>
       <c r="L11">
-        <v>24.07797131595353</v>
+        <v>24.0779713159535</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.63697990581334</v>
+        <v>15.63697990581343</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.867244280874839</v>
+        <v>2.86724428087492</v>
       </c>
       <c r="E12">
-        <v>16.01959516951258</v>
+        <v>16.01959516951232</v>
       </c>
       <c r="F12">
-        <v>47.40039400031813</v>
+        <v>47.40039400031802</v>
       </c>
       <c r="G12">
-        <v>36.54565082906297</v>
+        <v>36.54565082906291</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>45.78536592158667</v>
+        <v>45.78536592158658</v>
       </c>
       <c r="K12">
-        <v>27.39063452294214</v>
+        <v>27.39063452294209</v>
       </c>
       <c r="L12">
-        <v>24.40944289774299</v>
+        <v>24.40944289774301</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -839,13 +839,13 @@
         <v>2.852690804774973</v>
       </c>
       <c r="E13">
-        <v>15.98915188262998</v>
+        <v>15.98915188263002</v>
       </c>
       <c r="F13">
-        <v>47.23997627400681</v>
+        <v>47.23997627400671</v>
       </c>
       <c r="G13">
-        <v>36.41947074638366</v>
+        <v>36.4194707463836</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,10 +854,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>45.6530079600855</v>
+        <v>45.65300796008555</v>
       </c>
       <c r="K13">
-        <v>27.30865643252492</v>
+        <v>27.30865643252493</v>
       </c>
       <c r="L13">
         <v>24.33822566138171</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.43976366535514</v>
+        <v>15.43976366535515</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.805382709734253</v>
+        <v>2.805382709734209</v>
       </c>
       <c r="E14">
-        <v>15.88982543680988</v>
+        <v>15.88982543680997</v>
       </c>
       <c r="F14">
-        <v>46.71683005967486</v>
+        <v>46.716830059675</v>
       </c>
       <c r="G14">
-        <v>36.00800225689542</v>
+        <v>36.00800225689553</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>45.2201146803369</v>
+        <v>45.22011468033692</v>
       </c>
       <c r="K14">
-        <v>27.04061419841709</v>
+        <v>27.0406141984171</v>
       </c>
       <c r="L14">
         <v>24.10531947972001</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.34682968790063</v>
+        <v>15.34682968790061</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.776519017433326</v>
+        <v>2.776519017433352</v>
       </c>
       <c r="E15">
-        <v>15.82894677742527</v>
+        <v>15.82894677742526</v>
       </c>
       <c r="F15">
-        <v>46.39636717873587</v>
+        <v>46.39636717873597</v>
       </c>
       <c r="G15">
-        <v>35.75596678711012</v>
+        <v>35.75596678711017</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>44.95398165528105</v>
       </c>
       <c r="K15">
-        <v>26.87588623845746</v>
+        <v>26.87588623845748</v>
       </c>
       <c r="L15">
         <v>23.9621486050949</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.80786195089977</v>
+        <v>14.8078619508998</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.612687102825226</v>
+        <v>2.612687102825085</v>
       </c>
       <c r="E16">
-        <v>15.47932471923904</v>
+        <v>15.47932471923907</v>
       </c>
       <c r="F16">
-        <v>44.5584835802227</v>
+        <v>44.55848358022262</v>
       </c>
       <c r="G16">
-        <v>34.31074259767691</v>
+        <v>34.31074259767681</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>43.41331214285242</v>
+        <v>43.41331214285241</v>
       </c>
       <c r="K16">
-        <v>25.92311430484414</v>
+        <v>25.9231143048441</v>
       </c>
       <c r="L16">
-        <v>23.13355118437649</v>
+        <v>23.13355118437651</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.47134233831894</v>
+        <v>14.47134233831899</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.513415269057018</v>
+        <v>2.513415269057051</v>
       </c>
       <c r="E17">
-        <v>15.26401570477396</v>
+        <v>15.26401570477398</v>
       </c>
       <c r="F17">
-        <v>43.42860102640901</v>
+        <v>43.42860102640892</v>
       </c>
       <c r="G17">
-        <v>33.42241115663611</v>
+        <v>33.42241115663604</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>42.45360931271905</v>
+        <v>42.4536093127191</v>
       </c>
       <c r="K17">
-        <v>25.33033512411039</v>
+        <v>25.33033512411043</v>
       </c>
       <c r="L17">
-        <v>22.61762132382713</v>
+        <v>22.61762132382717</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.27556097610638</v>
+        <v>14.27556097610639</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.495978128190204</v>
+        <v>2.495978128190226</v>
       </c>
       <c r="E18">
-        <v>15.13981725162166</v>
+        <v>15.13981725162155</v>
       </c>
       <c r="F18">
-        <v>42.77743875726902</v>
+        <v>42.77743875726905</v>
       </c>
       <c r="G18">
-        <v>32.91049681252291</v>
+        <v>32.91049681252296</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>41.89602173265162</v>
+        <v>41.8960217326516</v>
       </c>
       <c r="K18">
-        <v>24.98617352085099</v>
+        <v>24.98617352085104</v>
       </c>
       <c r="L18">
-        <v>22.31794630787579</v>
+        <v>22.31794630787582</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.20888509999449</v>
+        <v>14.20888509999448</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.498139949322939</v>
+        <v>2.498139949322988</v>
       </c>
       <c r="E19">
-        <v>15.09769974816819</v>
+        <v>15.09769974816831</v>
       </c>
       <c r="F19">
-        <v>42.55671137661098</v>
+        <v>42.55671137661114</v>
       </c>
       <c r="G19">
-        <v>32.73697613943452</v>
+        <v>32.73697613943466</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>41.70625008776959</v>
+        <v>41.70625008776976</v>
       </c>
       <c r="K19">
-        <v>24.86908007448003</v>
+        <v>24.8690800744801</v>
       </c>
       <c r="L19">
-        <v>22.21596756886968</v>
+        <v>22.21596756886974</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.5073942536087</v>
+        <v>14.50739425360867</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.523941106420422</v>
+        <v>2.523941106420498</v>
       </c>
       <c r="E20">
-        <v>15.28697170365008</v>
+        <v>15.28697170364996</v>
       </c>
       <c r="F20">
-        <v>43.54900338615585</v>
+        <v>43.54900338615563</v>
       </c>
       <c r="G20">
-        <v>33.51706890242115</v>
+        <v>33.51706890242098</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>42.55634481971854</v>
+        <v>42.55634481971853</v>
       </c>
       <c r="K20">
-        <v>25.39376619910507</v>
+        <v>25.39376619910508</v>
       </c>
       <c r="L20">
-        <v>22.67284298863844</v>
+        <v>22.67284298863843</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.48421731289469</v>
+        <v>15.48421731289468</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.819254079586597</v>
+        <v>2.819254079586622</v>
       </c>
       <c r="E21">
-        <v>15.91900759198175</v>
+        <v>15.91900759198157</v>
       </c>
       <c r="F21">
-        <v>46.87049226529146</v>
+        <v>46.87049226529124</v>
       </c>
       <c r="G21">
-        <v>36.12885801630532</v>
+        <v>36.12885801630513</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>45.3474671637369</v>
+        <v>45.34746716373677</v>
       </c>
       <c r="K21">
-        <v>27.11945704851051</v>
+        <v>27.11945704851043</v>
       </c>
       <c r="L21">
-        <v>24.17383492333948</v>
+        <v>24.17383492333944</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.017181300913023</v>
+        <v>3.017181300913085</v>
       </c>
       <c r="E22">
-        <v>16.3302074634181</v>
+        <v>16.33020746341818</v>
       </c>
       <c r="F22">
-        <v>49.03921780614266</v>
+        <v>49.03921780614283</v>
       </c>
       <c r="G22">
-        <v>37.83491588333906</v>
+        <v>37.83491588333919</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>47.12738272597548</v>
+        <v>47.12738272597539</v>
       </c>
       <c r="K22">
-        <v>28.22247139997031</v>
+        <v>28.22247139997024</v>
       </c>
       <c r="L22">
-        <v>25.13167726323674</v>
+        <v>25.13167726323669</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.77493001881692</v>
+        <v>15.77493001881699</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.911013198236348</v>
+        <v>2.911013198236316</v>
       </c>
       <c r="E23">
-        <v>16.11083545552225</v>
+        <v>16.1108354555221</v>
       </c>
       <c r="F23">
-        <v>47.88138979875664</v>
+        <v>47.88138979875672</v>
       </c>
       <c r="G23">
-        <v>36.92400995258915</v>
+        <v>36.92400995258919</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>46.18115579982726</v>
+        <v>46.18115579982722</v>
       </c>
       <c r="K23">
-        <v>27.6358402114567</v>
+        <v>27.63584021145672</v>
       </c>
       <c r="L23">
-        <v>24.62241920504089</v>
+        <v>24.62241920504093</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.4911023981646</v>
+        <v>14.49110239816458</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.519181251179329</v>
+        <v>2.51918125117937</v>
       </c>
       <c r="E24">
-        <v>15.27659460019011</v>
+        <v>15.2765946001902</v>
       </c>
       <c r="F24">
-        <v>43.49457448802128</v>
+        <v>43.49457448802129</v>
       </c>
       <c r="G24">
-        <v>33.47427795387736</v>
+        <v>33.4742779538774</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>42.50991634980277</v>
+        <v>42.50991634980279</v>
       </c>
       <c r="K24">
-        <v>25.36509953026734</v>
+        <v>25.36509953026736</v>
       </c>
       <c r="L24">
-        <v>22.64788683558823</v>
+        <v>22.6478868355882</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.02067582081199</v>
+        <v>13.02067582081193</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.561508854881974</v>
+        <v>2.561508854882</v>
       </c>
       <c r="E25">
-        <v>14.36280724929216</v>
+        <v>14.36280724929218</v>
       </c>
       <c r="F25">
-        <v>38.71100120117564</v>
+        <v>38.7110012011756</v>
       </c>
       <c r="G25">
-        <v>29.71386752425312</v>
+        <v>29.71386752425309</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>38.33404093822865</v>
+        <v>38.33404093822854</v>
       </c>
       <c r="K25">
-        <v>22.79154498096902</v>
+        <v>22.79154498096896</v>
       </c>
       <c r="L25">
-        <v>20.40507166126792</v>
+        <v>20.40507166126784</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_10/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.85804517130435</v>
+        <v>11.85776887231283</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.660083628527775</v>
+        <v>2.654744233031364</v>
       </c>
       <c r="E2">
-        <v>13.67399089601039</v>
+        <v>13.67058691865851</v>
       </c>
       <c r="F2">
-        <v>35.28452924980239</v>
+        <v>35.24843919303359</v>
       </c>
       <c r="G2">
-        <v>27.17538502978902</v>
+        <v>26.94037577729572</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>27.20976444703495</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>35.0502543929327</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>20.77367280848979</v>
+        <v>35.04743066555263</v>
       </c>
       <c r="L2">
-        <v>18.64410296048907</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>20.77236976985373</v>
+      </c>
+      <c r="M2">
+        <v>18.64304219112399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.11921584807666</v>
+        <v>11.11926192797334</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.747253866128458</v>
+        <v>2.742599783688019</v>
       </c>
       <c r="E3">
-        <v>13.19642827968332</v>
+        <v>13.19365835551197</v>
       </c>
       <c r="F3">
-        <v>33.03567861400244</v>
+        <v>33.00232270855974</v>
       </c>
       <c r="G3">
-        <v>25.55862820319804</v>
+        <v>25.0720810324476</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>25.59113958072296</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>32.68515112989564</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>19.32291569151606</v>
+        <v>32.6829251382315</v>
       </c>
       <c r="L3">
-        <v>17.37737802132254</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>19.32190945373387</v>
+      </c>
+      <c r="M3">
+        <v>17.37655158383538</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.66649036943149</v>
+        <v>10.66654817152235</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.808631949627931</v>
+        <v>2.804355790962191</v>
       </c>
       <c r="E4">
-        <v>12.89794748245981</v>
+        <v>12.89558192533981</v>
       </c>
       <c r="F4">
-        <v>31.64564319221852</v>
+        <v>31.61399962103108</v>
       </c>
       <c r="G4">
-        <v>24.56983247474901</v>
+        <v>23.90940305930836</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>24.60122405058054</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>31.16161477474942</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>18.38927668897911</v>
+        <v>31.15974891466539</v>
       </c>
       <c r="L4">
-        <v>16.5621098326831</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>18.38844512907498</v>
+      </c>
+      <c r="M4">
+        <v>16.56142262677604</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.47826189908736</v>
+        <v>10.47832280372042</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.835348667985062</v>
+        <v>2.831216910561947</v>
       </c>
       <c r="E5">
-        <v>12.7750286279578</v>
+        <v>12.77283211754004</v>
       </c>
       <c r="F5">
-        <v>31.07709570337055</v>
+        <v>31.04615951954819</v>
       </c>
       <c r="G5">
-        <v>24.16805722880472</v>
+        <v>23.43177812421365</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>24.1990006118275</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>30.52250938235364</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>17.99779336987709</v>
+        <v>30.52078952637915</v>
       </c>
       <c r="L5">
-        <v>16.220283841382</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>17.99703159868914</v>
+      </c>
+      <c r="M5">
+        <v>16.21965260145267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.44678477171656</v>
+        <v>10.44684609159372</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.839880902352971</v>
+        <v>2.835772578964848</v>
       </c>
       <c r="E6">
-        <v>12.75454190923499</v>
+        <v>12.75237373888718</v>
       </c>
       <c r="F6">
-        <v>30.98257244108167</v>
+        <v>30.95175432555595</v>
       </c>
       <c r="G6">
-        <v>24.10142115783503</v>
+        <v>23.35224341969872</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>24.13229064916999</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>30.41527591534752</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>17.93211592218598</v>
+        <v>30.41358028513486</v>
       </c>
       <c r="L6">
-        <v>16.16293974030411</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>17.93136566899996</v>
+      </c>
+      <c r="M6">
+        <v>16.16231775777894</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.66396682435799</v>
+        <v>10.66402467501279</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.808985681669083</v>
+        <v>2.804711507702582</v>
       </c>
       <c r="E7">
-        <v>12.89629489600232</v>
+        <v>12.8939316008668</v>
       </c>
       <c r="F7">
-        <v>31.63798361526704</v>
+        <v>31.60634954400356</v>
       </c>
       <c r="G7">
-        <v>24.56440892762492</v>
+        <v>23.90297690010757</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>24.59579442427408</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>31.15306985229197</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>18.38404191599613</v>
+        <v>31.15120596307431</v>
       </c>
       <c r="L7">
-        <v>16.55753891458146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>18.3832113022999</v>
+      </c>
+      <c r="M7">
+        <v>16.55685246607911</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.58922654916786</v>
+        <v>11.58925424271098</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.688331208744777</v>
+        <v>2.683237656145364</v>
       </c>
       <c r="E8">
-        <v>13.51043193747351</v>
+        <v>13.50724377023499</v>
       </c>
       <c r="F8">
-        <v>34.51111570917115</v>
+        <v>34.4759622281565</v>
       </c>
       <c r="G8">
-        <v>26.6171879506494</v>
+        <v>26.29941181166035</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>26.65091839002405</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>34.2493744080018</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>20.28219741016874</v>
+        <v>34.24675882134228</v>
       </c>
       <c r="L8">
-        <v>18.21500821916421</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>20.28099860089337</v>
+      </c>
+      <c r="M8">
+        <v>18.2140294643102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.52802857336193</v>
+        <v>13.52756544081918</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.529058295414198</v>
+        <v>2.521980495552041</v>
       </c>
       <c r="E9">
-        <v>14.67292042161161</v>
+        <v>14.66820779937826</v>
       </c>
       <c r="F9">
-        <v>40.33274484532546</v>
+        <v>40.29013033525162</v>
       </c>
       <c r="G9">
-        <v>30.98872838866109</v>
+        <v>31.02821420347128</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>30.88074152741061</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>39.77178581781996</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>23.67658747611356</v>
+        <v>39.76759214333656</v>
       </c>
       <c r="L9">
-        <v>21.17685197423335</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>23.67458003438968</v>
+      </c>
+      <c r="M9">
+        <v>21.17524253515051</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.84596425928458</v>
+        <v>14.84530911946209</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.624072063974531</v>
+        <v>2.614447439164338</v>
       </c>
       <c r="E10">
-        <v>15.50384811802524</v>
+        <v>15.49802645816002</v>
       </c>
       <c r="F10">
-        <v>44.68726496216846</v>
+        <v>44.63975220763064</v>
       </c>
       <c r="G10">
-        <v>34.41199914078031</v>
+        <v>34.45551831771209</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>34.19518647403896</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>43.52208035590516</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>25.9903311778261</v>
+        <v>43.51658200667908</v>
       </c>
       <c r="L10">
-        <v>23.19203495043638</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>25.98763134410754</v>
+      </c>
+      <c r="M10">
+        <v>23.18989230331664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.42201611788005</v>
+        <v>15.42126202726552</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.799856482383766</v>
+        <v>2.789870390885568</v>
       </c>
       <c r="E11">
-        <v>15.87818599275057</v>
+        <v>15.8718485278619</v>
       </c>
       <c r="F11">
-        <v>46.65554995515922</v>
+        <v>46.60575585661518</v>
       </c>
       <c r="G11">
-        <v>35.95980611347942</v>
+        <v>36.00511107848791</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>35.70034392868829</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>45.16928019496385</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>27.00914583572969</v>
+        <v>45.163132960678</v>
       </c>
       <c r="L11">
-        <v>24.0779713159535</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>27.00609607049908</v>
+      </c>
+      <c r="M11">
+        <v>24.0755606163067</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.63697990581343</v>
+        <v>15.63618622854449</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.86724428087492</v>
+        <v>2.857119355025754</v>
       </c>
       <c r="E12">
-        <v>16.01959516951232</v>
+        <v>16.01305925208435</v>
       </c>
       <c r="F12">
-        <v>47.40039400031802</v>
+        <v>47.34972349925409</v>
       </c>
       <c r="G12">
-        <v>36.54565082906291</v>
+        <v>36.59162352879257</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>36.27095001409518</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>45.78536592158658</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>27.39063452294209</v>
+        <v>45.7789623849288</v>
       </c>
       <c r="L12">
-        <v>24.40944289774301</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>27.38744570239626</v>
+      </c>
+      <c r="M12">
+        <v>24.40692588074312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.59082122225967</v>
+        <v>15.59003617327907</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.852690804774973</v>
+        <v>2.842595879914725</v>
       </c>
       <c r="E13">
-        <v>15.98915188263002</v>
+        <v>15.98265887277691</v>
       </c>
       <c r="F13">
-        <v>47.23997627400671</v>
+        <v>47.18949517043253</v>
       </c>
       <c r="G13">
-        <v>36.4194707463836</v>
+        <v>36.46530004334594</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>36.14801238399425</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>45.65300796008555</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>27.30865643252493</v>
+        <v>45.6466601425949</v>
       </c>
       <c r="L13">
-        <v>24.33822566138171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>27.30549787966799</v>
+      </c>
+      <c r="M13">
+        <v>24.33573177729956</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.43976366535515</v>
+        <v>15.43900636334143</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.805382709734209</v>
+        <v>2.795385240246056</v>
       </c>
       <c r="E14">
-        <v>15.88982543680997</v>
+        <v>15.88347171780061</v>
       </c>
       <c r="F14">
-        <v>46.716830059675</v>
+        <v>46.66696414237119</v>
       </c>
       <c r="G14">
-        <v>36.00800225689553</v>
+        <v>36.05336233710163</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>35.7472685021952</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>45.22011468033692</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>27.0406141984171</v>
+        <v>45.21394658946548</v>
       </c>
       <c r="L14">
-        <v>24.10531947972001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>27.03755313432141</v>
+      </c>
+      <c r="M14">
+        <v>24.10290013737141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.34682968790061</v>
+        <v>15.34608909073755</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.776519017433352</v>
+        <v>2.766580962972915</v>
       </c>
       <c r="E15">
-        <v>15.82894677742526</v>
+        <v>15.82267791952582</v>
       </c>
       <c r="F15">
-        <v>46.39636717873597</v>
+        <v>46.34687628453744</v>
       </c>
       <c r="G15">
-        <v>35.75596678711017</v>
+        <v>35.80103830077559</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>35.50191885054038</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>44.95398165528105</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>26.87588623845748</v>
+        <v>44.94792218453586</v>
       </c>
       <c r="L15">
-        <v>23.9621486050949</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>26.87288398491152</v>
+      </c>
+      <c r="M15">
+        <v>23.95977425590993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.8078619508998</v>
+        <v>14.80721300867313</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.612687102825085</v>
+        <v>2.603085870419743</v>
       </c>
       <c r="E16">
-        <v>15.47932471923907</v>
+        <v>15.47353642088808</v>
       </c>
       <c r="F16">
-        <v>44.55848358022262</v>
+        <v>44.5111184611964</v>
       </c>
       <c r="G16">
-        <v>34.31074259767681</v>
+        <v>34.35414396711054</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>34.09684861543483</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>43.41331214285241</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>25.9231143048441</v>
+        <v>43.4078548761555</v>
       </c>
       <c r="L16">
-        <v>23.13355118437651</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>25.92043651567296</v>
+      </c>
+      <c r="M16">
+        <v>23.13142545078561</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.47134233831899</v>
+        <v>14.47074636880197</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.513415269057051</v>
+        <v>2.504018005867195</v>
       </c>
       <c r="E17">
-        <v>15.26401570477398</v>
+        <v>15.25851836198525</v>
       </c>
       <c r="F17">
-        <v>43.42860102640892</v>
+        <v>43.38252332607737</v>
       </c>
       <c r="G17">
-        <v>33.42241115663604</v>
+        <v>33.46477446904278</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>33.23485090807293</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>42.4536093127191</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>25.33033512411043</v>
+        <v>42.44850562691668</v>
       </c>
       <c r="L17">
-        <v>22.61762132382717</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>25.32784646820511</v>
+      </c>
+      <c r="M17">
+        <v>22.61564085135356</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.27556097610639</v>
+        <v>14.27499441549952</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.495978128190226</v>
+        <v>2.487968688316559</v>
       </c>
       <c r="E18">
-        <v>15.13981725162155</v>
+        <v>15.1344863039294</v>
       </c>
       <c r="F18">
-        <v>42.77743875726905</v>
+        <v>42.73209690422777</v>
       </c>
       <c r="G18">
-        <v>32.91049681252296</v>
+        <v>32.95225855216153</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>32.73873218615648</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>41.8960217326516</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>24.98617352085104</v>
+        <v>41.89111639374047</v>
       </c>
       <c r="L18">
-        <v>22.31794630787582</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>24.98379046922308</v>
+      </c>
+      <c r="M18">
+        <v>22.31604706935986</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.20888509999448</v>
+        <v>14.20832832649883</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.498139949322988</v>
+        <v>2.490216978878935</v>
       </c>
       <c r="E19">
-        <v>15.09769974816831</v>
+        <v>15.09242501500461</v>
       </c>
       <c r="F19">
-        <v>42.55671137661114</v>
+        <v>42.51161799952802</v>
       </c>
       <c r="G19">
-        <v>32.73697613943466</v>
+        <v>32.77853346084665</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>32.57067352619431</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>41.70625008776976</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>24.8690800744801</v>
+        <v>41.70141111247035</v>
       </c>
       <c r="L19">
-        <v>22.21596756886974</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>24.86673227251303</v>
+      </c>
+      <c r="M19">
+        <v>22.21409546724144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.50739425360867</v>
+        <v>14.50679275758211</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.523941106420498</v>
+        <v>2.514522213626205</v>
       </c>
       <c r="E20">
-        <v>15.28697170364996</v>
+        <v>15.28144349669438</v>
       </c>
       <c r="F20">
-        <v>43.54900338615563</v>
+        <v>43.50278914950295</v>
       </c>
       <c r="G20">
-        <v>33.51706890242098</v>
+        <v>33.5595431938718</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>33.32663876051038</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>42.55634481971853</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>25.39376619910508</v>
+        <v>42.55120403145084</v>
       </c>
       <c r="L20">
-        <v>22.67284298863843</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>25.39125774852848</v>
+      </c>
+      <c r="M20">
+        <v>22.67084729998393</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.48421731289468</v>
+        <v>15.48345192254255</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.819254079586622</v>
+        <v>2.809228044852775</v>
       </c>
       <c r="E21">
-        <v>15.91900759198157</v>
+        <v>15.91261305868524</v>
       </c>
       <c r="F21">
-        <v>46.87049226529124</v>
+        <v>46.82044603787836</v>
       </c>
       <c r="G21">
-        <v>36.12885801630513</v>
+        <v>36.17435616133347</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>35.86494998814687</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>45.34746716373677</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>27.11945704851043</v>
+        <v>45.3412465943285</v>
       </c>
       <c r="L21">
-        <v>24.17383492333944</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>27.11636754132852</v>
+      </c>
+      <c r="M21">
+        <v>24.17139382752225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.10424293063198</v>
+        <v>16.10335778509204</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.017181300913085</v>
+        <v>3.006746575243332</v>
       </c>
       <c r="E22">
-        <v>16.33020746341818</v>
+        <v>16.32322749823021</v>
       </c>
       <c r="F22">
-        <v>49.03921780614283</v>
+        <v>48.98659091802627</v>
       </c>
       <c r="G22">
-        <v>37.83491588333919</v>
+        <v>37.88233969812691</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>37.528271581583</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>47.12738272597539</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>28.22247139997024</v>
+        <v>47.12039300828167</v>
       </c>
       <c r="L22">
-        <v>25.13167726323669</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>28.21896296772118</v>
+      </c>
+      <c r="M22">
+        <v>25.12891624720798</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.77493001881699</v>
+        <v>15.77411012808792</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.911013198236316</v>
+        <v>2.900797979568319</v>
       </c>
       <c r="E23">
-        <v>16.1108354555221</v>
+        <v>16.10417031098391</v>
       </c>
       <c r="F23">
-        <v>47.88138979875672</v>
+        <v>47.83014922031087</v>
       </c>
       <c r="G23">
-        <v>36.92400995258919</v>
+        <v>36.97041123170315</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>36.6397136119068</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>46.18115579982722</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>27.63584021145672</v>
+        <v>46.17458345345771</v>
       </c>
       <c r="L23">
-        <v>24.62241920504093</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>27.63255956698422</v>
+      </c>
+      <c r="M23">
+        <v>24.61983203768449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.49110239816458</v>
+        <v>14.49050340389847</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.51918125117937</v>
+        <v>2.509772139282477</v>
       </c>
       <c r="E24">
-        <v>15.2765946001902</v>
+        <v>15.27108034955454</v>
       </c>
       <c r="F24">
-        <v>43.49457448802129</v>
+        <v>43.44842199250547</v>
       </c>
       <c r="G24">
-        <v>33.4742779538774</v>
+        <v>33.51670208648711</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>33.28514324173469</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>42.50991634980279</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>25.36509953026736</v>
+        <v>42.50479235073185</v>
       </c>
       <c r="L24">
-        <v>22.6478868355882</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>25.362600038505</v>
+      </c>
+      <c r="M24">
+        <v>22.64589803318417</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.02067582081193</v>
+        <v>13.0202754982604</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.561508854882</v>
+        <v>2.555011725365489</v>
       </c>
       <c r="E25">
-        <v>14.36280724929218</v>
+        <v>14.35850122293377</v>
       </c>
       <c r="F25">
-        <v>38.7110012011756</v>
+        <v>38.67016949677383</v>
       </c>
       <c r="G25">
-        <v>29.71386752425309</v>
+        <v>29.75183260843151</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>29.65257893080441</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>38.33404093822854</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>22.79154498096896</v>
+        <v>38.33029288378826</v>
       </c>
       <c r="L25">
-        <v>20.40507166126784</v>
+        <v>22.78976971549003</v>
+      </c>
+      <c r="M25">
+        <v>20.40364218064602</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_10/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.85776887231283</v>
+        <v>7.256431418257268</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.654744233031364</v>
+        <v>8.396687938312727</v>
       </c>
       <c r="E2">
-        <v>13.67058691865851</v>
+        <v>8.169986667766914</v>
       </c>
       <c r="F2">
-        <v>35.24843919303359</v>
+        <v>55.3389047629632</v>
       </c>
       <c r="G2">
-        <v>26.94037577729572</v>
+        <v>1.984051604807178</v>
       </c>
       <c r="H2">
-        <v>27.20976444703495</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.966256427437162</v>
       </c>
       <c r="K2">
-        <v>35.04743066555263</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>20.77236976985373</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>18.64304219112399</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>36.16373745123392</v>
+      </c>
+      <c r="N2">
+        <v>14.22122761403118</v>
+      </c>
+      <c r="O2">
+        <v>44.15786957578705</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.11926192797334</v>
+        <v>6.898456351435069</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.742599783688019</v>
+        <v>7.822562024359677</v>
       </c>
       <c r="E3">
-        <v>13.19365835551197</v>
+        <v>7.929860674220509</v>
       </c>
       <c r="F3">
-        <v>33.00232270855974</v>
+        <v>51.72296673158247</v>
       </c>
       <c r="G3">
-        <v>25.0720810324476</v>
+        <v>2.007694843988996</v>
       </c>
       <c r="H3">
-        <v>25.59113958072296</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.071304139716783</v>
       </c>
       <c r="K3">
-        <v>32.6829251382315</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>19.32190945373387</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>17.37655158383538</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>33.48531192641276</v>
+      </c>
+      <c r="N3">
+        <v>14.13526540607237</v>
+      </c>
+      <c r="O3">
+        <v>41.23142294492401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.66654817152235</v>
+        <v>6.672277724713975</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.804355790962191</v>
+        <v>7.462314309802205</v>
       </c>
       <c r="E4">
-        <v>12.89558192533981</v>
+        <v>7.783169409422201</v>
       </c>
       <c r="F4">
-        <v>31.61399962103108</v>
+        <v>49.51150668018349</v>
       </c>
       <c r="G4">
-        <v>23.90940305930836</v>
+        <v>2.022181610870335</v>
       </c>
       <c r="H4">
-        <v>24.60122405058054</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.136444907206271</v>
       </c>
       <c r="K4">
-        <v>31.15974891466539</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>18.38844512907498</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>16.56142262677604</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>31.77386343848008</v>
+      </c>
+      <c r="N4">
+        <v>14.08678743491452</v>
+      </c>
+      <c r="O4">
+        <v>39.43805452422573</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.47832280372042</v>
+        <v>6.578625313365261</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.831216910561947</v>
+        <v>7.313293238797448</v>
       </c>
       <c r="E5">
-        <v>12.77283211754004</v>
+        <v>7.72347739190784</v>
       </c>
       <c r="F5">
-        <v>31.04615951954819</v>
+        <v>48.61154901529306</v>
       </c>
       <c r="G5">
-        <v>23.43177812421365</v>
+        <v>2.028096875038839</v>
       </c>
       <c r="H5">
-        <v>24.1990006118275</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.163199693650265</v>
       </c>
       <c r="K5">
-        <v>30.52078952637915</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>17.99703159868914</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>16.21965260145267</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>31.05866960141162</v>
+      </c>
+      <c r="N5">
+        <v>14.06814368831681</v>
+      </c>
+      <c r="O5">
+        <v>38.70731787873167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.44684609159372</v>
+        <v>6.562988829751608</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.835772578964848</v>
+        <v>7.288407728319377</v>
       </c>
       <c r="E6">
-        <v>12.75237373888718</v>
+        <v>7.713568336471203</v>
       </c>
       <c r="F6">
-        <v>30.95175432555595</v>
+        <v>48.46216788214996</v>
       </c>
       <c r="G6">
-        <v>23.35224341969872</v>
+        <v>2.029080318132714</v>
       </c>
       <c r="H6">
-        <v>24.13229064916999</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.167656231141236</v>
       </c>
       <c r="K6">
-        <v>30.41358028513486</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>17.93136566899996</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>16.16231775777894</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>30.93881453203984</v>
+      </c>
+      <c r="N6">
+        <v>14.0651157651472</v>
+      </c>
+      <c r="O6">
+        <v>38.58596902030614</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.66402467501279</v>
+        <v>6.671020522464305</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.804711507702582</v>
+        <v>7.460313850789121</v>
       </c>
       <c r="E7">
-        <v>12.8939316008668</v>
+        <v>7.782364147656978</v>
       </c>
       <c r="F7">
-        <v>31.60634954400356</v>
+        <v>49.49936544515051</v>
       </c>
       <c r="G7">
-        <v>23.90297690010757</v>
+        <v>2.02226131518843</v>
       </c>
       <c r="H7">
-        <v>24.59579442427408</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.136804825112857</v>
       </c>
       <c r="K7">
-        <v>31.15120596307431</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>18.3832113022999</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>16.55685246607911</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>31.76429115062966</v>
+      </c>
+      <c r="N7">
+        <v>14.08653146487513</v>
+      </c>
+      <c r="O7">
+        <v>39.4281999901787</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.58925424271098</v>
+        <v>7.134392152714958</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.683237656145364</v>
+        <v>8.200148053930082</v>
       </c>
       <c r="E8">
-        <v>13.50724377023499</v>
+        <v>8.086964526173338</v>
       </c>
       <c r="F8">
-        <v>34.4759622281565</v>
+        <v>54.08955428812333</v>
       </c>
       <c r="G8">
-        <v>26.29941181166035</v>
+        <v>1.992222881606442</v>
       </c>
       <c r="H8">
-        <v>26.65091839002405</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.002375213651112</v>
       </c>
       <c r="K8">
-        <v>34.24675882134228</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>20.28099860089337</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>18.2140294643102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>35.25347517343686</v>
+      </c>
+      <c r="N8">
+        <v>14.19071467377531</v>
+      </c>
+      <c r="O8">
+        <v>43.14748212786238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.52756544081918</v>
+        <v>7.988193243192372</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.521980495552041</v>
+        <v>9.606333533094585</v>
       </c>
       <c r="E9">
-        <v>14.66820779937826</v>
+        <v>8.696977853723325</v>
       </c>
       <c r="F9">
-        <v>40.29013033525162</v>
+        <v>63.46029311569183</v>
       </c>
       <c r="G9">
-        <v>31.02821420347128</v>
+        <v>1.931969078960794</v>
       </c>
       <c r="H9">
-        <v>30.88074152741061</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.741191081903476</v>
       </c>
       <c r="K9">
-        <v>39.76759214333656</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>23.67458003438968</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>21.17524253515051</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>41.61877691387114</v>
+      </c>
+      <c r="N9">
+        <v>14.42737795889732</v>
+      </c>
+      <c r="O9">
+        <v>50.99902570394389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.84530911946209</v>
+        <v>8.622713847713072</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.614447439164338</v>
+        <v>10.64548312088662</v>
       </c>
       <c r="E10">
-        <v>15.49802645816002</v>
+        <v>9.167446251841211</v>
       </c>
       <c r="F10">
-        <v>44.63975220763064</v>
+        <v>70.80582748963285</v>
       </c>
       <c r="G10">
-        <v>34.45551831771209</v>
+        <v>1.884785395889363</v>
       </c>
       <c r="H10">
-        <v>34.19518647403896</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.546011941455622</v>
       </c>
       <c r="K10">
-        <v>43.51658200667908</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>25.98763134410754</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>23.18989230331664</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>46.1053213079297</v>
+      </c>
+      <c r="N10">
+        <v>14.61738935017425</v>
+      </c>
+      <c r="O10">
+        <v>57.06498660999936</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.42126202726552</v>
+        <v>8.934226069611263</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.789870390885568</v>
+        <v>11.13145390181552</v>
       </c>
       <c r="E11">
-        <v>15.8718485278619</v>
+        <v>9.391953178819797</v>
       </c>
       <c r="F11">
-        <v>46.60575585661518</v>
+        <v>74.26458923144807</v>
       </c>
       <c r="G11">
-        <v>36.00511107848791</v>
+        <v>1.861966323977418</v>
       </c>
       <c r="H11">
-        <v>35.70034392868829</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.4549736916082</v>
       </c>
       <c r="K11">
-        <v>45.163132960678</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>27.00609607049908</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>24.0755606163067</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>48.13953603647739</v>
+      </c>
+      <c r="N11">
+        <v>14.70599169040051</v>
+      </c>
+      <c r="O11">
+        <v>59.9094885034559</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.63618622854449</v>
+        <v>9.049905504706276</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.857119355025754</v>
+        <v>11.3189517592656</v>
       </c>
       <c r="E12">
-        <v>16.01305925208435</v>
+        <v>9.479253107512141</v>
       </c>
       <c r="F12">
-        <v>47.34972349925409</v>
+        <v>75.60123473827932</v>
       </c>
       <c r="G12">
-        <v>36.59162352879257</v>
+        <v>1.853037822364147</v>
       </c>
       <c r="H12">
-        <v>36.27095001409518</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.419991161418839</v>
       </c>
       <c r="K12">
-        <v>45.7789623849288</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>27.38744570239626</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>24.40692588074312</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>48.91327717681673</v>
+      </c>
+      <c r="N12">
+        <v>14.73967035416883</v>
+      </c>
+      <c r="O12">
+        <v>61.00713813167243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.59003617327907</v>
+        <v>9.025092063806389</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.842595879914725</v>
+        <v>11.2783836855601</v>
       </c>
       <c r="E13">
-        <v>15.98265887277691</v>
+        <v>9.460333381906546</v>
       </c>
       <c r="F13">
-        <v>47.18949517043253</v>
+        <v>75.3119587180372</v>
       </c>
       <c r="G13">
-        <v>36.46530004334594</v>
+        <v>1.854975431307144</v>
       </c>
       <c r="H13">
-        <v>36.14801238399425</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.427551573412737</v>
       </c>
       <c r="K13">
-        <v>45.6466601425949</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>27.30549787966799</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>24.33573177729956</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>48.74639492148051</v>
+      </c>
+      <c r="N13">
+        <v>14.73241533468306</v>
+      </c>
+      <c r="O13">
+        <v>60.76965568612236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.43900636334143</v>
+        <v>8.943788367728962</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.795385240246056</v>
+        <v>11.14679840637152</v>
       </c>
       <c r="E14">
-        <v>15.88347171780061</v>
+        <v>9.399083814567961</v>
       </c>
       <c r="F14">
-        <v>46.66696414237119</v>
+        <v>74.37394326542291</v>
       </c>
       <c r="G14">
-        <v>36.05336233710163</v>
+        <v>1.861238204376538</v>
       </c>
       <c r="H14">
-        <v>35.7472685021952</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.452107147916696</v>
       </c>
       <c r="K14">
-        <v>45.21394658946548</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>27.03755313432141</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>24.10290013737141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>48.20309152896032</v>
+      </c>
+      <c r="N14">
+        <v>14.70876128968048</v>
+      </c>
+      <c r="O14">
+        <v>59.99932138214261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.34608909073755</v>
+        <v>8.893692596697576</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.766580962972915</v>
+        <v>11.06670893309956</v>
       </c>
       <c r="E15">
-        <v>15.82267791952582</v>
+        <v>9.361893528491169</v>
       </c>
       <c r="F15">
-        <v>46.34687628453744</v>
+        <v>73.80325713613536</v>
       </c>
       <c r="G15">
-        <v>35.80103830077559</v>
+        <v>1.86503348686862</v>
       </c>
       <c r="H15">
-        <v>35.50191885054038</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.4670753190706</v>
       </c>
       <c r="K15">
-        <v>44.94792218453586</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>26.87288398491152</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>23.95977425590993</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>47.87091110532475</v>
+      </c>
+      <c r="N15">
+        <v>14.69428205111544</v>
+      </c>
+      <c r="O15">
+        <v>59.53044621925556</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.80721300867313</v>
+        <v>8.602031920890877</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.603085870419743</v>
+        <v>10.61410967523045</v>
       </c>
       <c r="E16">
-        <v>15.47353642088808</v>
+        <v>9.153043674372553</v>
       </c>
       <c r="F16">
-        <v>44.5111184611964</v>
+        <v>70.58291083178953</v>
       </c>
       <c r="G16">
-        <v>34.35414396711054</v>
+        <v>1.886242328938378</v>
       </c>
       <c r="H16">
-        <v>34.09684861543483</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.551901864954315</v>
       </c>
       <c r="K16">
-        <v>43.4078548761555</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>25.92043651567296</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>23.13142545078561</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>45.97258158555999</v>
+      </c>
+      <c r="N16">
+        <v>14.61162863559263</v>
+      </c>
+      <c r="O16">
+        <v>56.88143294666978</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.47074636880197</v>
+        <v>8.418958030521738</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.504018005867195</v>
+        <v>10.34077199436867</v>
       </c>
       <c r="E17">
-        <v>15.25851836198525</v>
+        <v>9.028056311812167</v>
       </c>
       <c r="F17">
-        <v>43.38252332607737</v>
+        <v>68.64325278512896</v>
       </c>
       <c r="G17">
-        <v>33.46477446904278</v>
+        <v>1.898851241380593</v>
       </c>
       <c r="H17">
-        <v>33.23485090807293</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.603251249639082</v>
       </c>
       <c r="K17">
-        <v>42.44850562691668</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>25.32784646820511</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>22.61564085135356</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>44.80890679311433</v>
+      </c>
+      <c r="N17">
+        <v>14.56137094444203</v>
+      </c>
+      <c r="O17">
+        <v>55.28300762297184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.27499441549952</v>
+        <v>8.321743171908331</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.487968688316559</v>
+        <v>10.18468099511136</v>
       </c>
       <c r="E18">
-        <v>15.1344863039294</v>
+        <v>8.957092452836649</v>
       </c>
       <c r="F18">
-        <v>42.73209690422777</v>
+        <v>67.53786054724513</v>
       </c>
       <c r="G18">
-        <v>32.95225855216153</v>
+        <v>1.905983180537058</v>
       </c>
       <c r="H18">
-        <v>32.73873218615648</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.632588190482847</v>
       </c>
       <c r="K18">
-        <v>41.89111639374047</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>24.98379046922308</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>22.31604706935986</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>44.13861796136574</v>
+      </c>
+      <c r="N18">
+        <v>14.53268242670644</v>
+      </c>
+      <c r="O18">
+        <v>54.37099587105561</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.20832832649883</v>
+        <v>8.291885795950034</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.490216978878935</v>
+        <v>10.13198689720697</v>
       </c>
       <c r="E19">
-        <v>15.09242501500461</v>
+        <v>8.933206018168088</v>
       </c>
       <c r="F19">
-        <v>42.51161799952802</v>
+        <v>67.16511310267667</v>
       </c>
       <c r="G19">
-        <v>32.77853346084665</v>
+        <v>1.908379510932063</v>
       </c>
       <c r="H19">
-        <v>32.57067352619431</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.642491836575603</v>
       </c>
       <c r="K19">
-        <v>41.70141111247035</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>24.86673227251303</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>22.21409546724144</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>43.91139527696294</v>
+      </c>
+      <c r="N19">
+        <v>14.52301085193945</v>
+      </c>
+      <c r="O19">
+        <v>54.06326933159388</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.50679275758211</v>
+        <v>8.43860618850125</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.514522213626205</v>
+        <v>10.36974346583786</v>
       </c>
       <c r="E20">
-        <v>15.28144349669438</v>
+        <v>9.04126111757247</v>
       </c>
       <c r="F20">
-        <v>43.50278914950295</v>
+        <v>68.84861267204239</v>
       </c>
       <c r="G20">
-        <v>33.5595431938718</v>
+        <v>1.897522013961914</v>
       </c>
       <c r="H20">
-        <v>33.32663876051038</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.597806636736363</v>
       </c>
       <c r="K20">
-        <v>42.55120403145084</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>25.39125774852848</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>22.67084729998393</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>44.9328563814174</v>
+      </c>
+      <c r="N20">
+        <v>14.56669943799416</v>
+      </c>
+      <c r="O20">
+        <v>55.45235184444303</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.48345192254255</v>
+        <v>8.967730534879388</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.809228044852775</v>
+        <v>11.18533799279105</v>
       </c>
       <c r="E21">
-        <v>15.91261305868524</v>
+        <v>9.417004226452365</v>
       </c>
       <c r="F21">
-        <v>46.82044603787836</v>
+        <v>74.64862879080121</v>
       </c>
       <c r="G21">
-        <v>36.17435616133347</v>
+        <v>1.859407413785888</v>
       </c>
       <c r="H21">
-        <v>35.86494998814687</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.44491018923464</v>
       </c>
       <c r="K21">
-        <v>45.3412465943285</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>27.11636754132852</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>24.17139382752225</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>48.36253539103379</v>
+      </c>
+      <c r="N21">
+        <v>14.71570753107448</v>
+      </c>
+      <c r="O21">
+        <v>60.22494656837863</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.10335778509204</v>
+        <v>9.300284178474785</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.006746575243332</v>
+        <v>11.73993707024527</v>
       </c>
       <c r="E22">
-        <v>16.32322749823021</v>
+        <v>9.676573207496464</v>
       </c>
       <c r="F22">
-        <v>48.98659091802627</v>
+        <v>78.60450895148252</v>
       </c>
       <c r="G22">
-        <v>37.88233969812691</v>
+        <v>1.832745038216305</v>
       </c>
       <c r="H22">
-        <v>37.528271581583</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.341877633218743</v>
       </c>
       <c r="K22">
-        <v>47.12039300828167</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>28.21896296772118</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>25.12891624720798</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>50.62766140677311</v>
+      </c>
+      <c r="N22">
+        <v>14.81366951983494</v>
+      </c>
+      <c r="O22">
+        <v>63.47057240603724</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.77411012808792</v>
+        <v>9.123977728663167</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.900797979568319</v>
+        <v>11.44123941212247</v>
       </c>
       <c r="E23">
-        <v>16.10417031098391</v>
+        <v>9.536386572232399</v>
       </c>
       <c r="F23">
-        <v>47.83014922031087</v>
+        <v>76.47341324416476</v>
       </c>
       <c r="G23">
-        <v>36.97041123170315</v>
+        <v>1.847177939110464</v>
       </c>
       <c r="H23">
-        <v>36.6397136119068</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.39723315015326</v>
       </c>
       <c r="K23">
-        <v>46.17458345345771</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>27.63255956698422</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>24.61983203768449</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>49.41454943643009</v>
+      </c>
+      <c r="N23">
+        <v>14.7614202182734</v>
+      </c>
+      <c r="O23">
+        <v>61.72293149570447</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.49050340389847</v>
+        <v>8.42972822786791</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.509772139282477</v>
+        <v>10.35664228650653</v>
       </c>
       <c r="E24">
-        <v>15.27108034955454</v>
+        <v>9.035288495976006</v>
       </c>
       <c r="F24">
-        <v>43.44842199250547</v>
+        <v>68.7557398078347</v>
       </c>
       <c r="G24">
-        <v>33.51670208648711</v>
+        <v>1.898123316016377</v>
       </c>
       <c r="H24">
-        <v>33.28514324173469</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.600268707994915</v>
       </c>
       <c r="K24">
-        <v>42.50479235073185</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>25.362600038505</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>22.64589803318417</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>44.87682305227011</v>
+      </c>
+      <c r="N24">
+        <v>14.56428977406119</v>
+      </c>
+      <c r="O24">
+        <v>55.37577025988583</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.0202754982604</v>
+        <v>7.763600558125687</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.555011725365489</v>
+        <v>9.227903594291011</v>
       </c>
       <c r="E25">
-        <v>14.35850122293377</v>
+        <v>8.529418830833837</v>
       </c>
       <c r="F25">
-        <v>38.67016949677383</v>
+        <v>60.81145853179684</v>
       </c>
       <c r="G25">
-        <v>29.75183260843151</v>
+        <v>1.94859408770933</v>
       </c>
       <c r="H25">
-        <v>29.65257893080441</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.812011397429651</v>
       </c>
       <c r="K25">
-        <v>38.33029288378826</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>22.78976971549003</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>20.40364218064602</v>
+        <v>39.93914135282731</v>
+      </c>
+      <c r="N25">
+        <v>14.36018679902215</v>
+      </c>
+      <c r="O25">
+        <v>48.80102100555069</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_10/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.256431418257268</v>
+        <v>19.36031491451516</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.396687938312727</v>
+        <v>7.368335908790642</v>
       </c>
       <c r="E2">
-        <v>8.169986667766914</v>
+        <v>12.65410309363841</v>
       </c>
       <c r="F2">
-        <v>55.3389047629632</v>
+        <v>31.08900303241227</v>
       </c>
       <c r="G2">
-        <v>1.984051604807178</v>
+        <v>48.43329551316913</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>13.39341511105149</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>14.24226096596978</v>
       </c>
       <c r="J2">
-        <v>4.966256427437162</v>
+        <v>7.988717214912181</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>13.90199024285372</v>
       </c>
       <c r="M2">
-        <v>36.16373745123392</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>14.22122761403118</v>
+        <v>12.96756836068194</v>
       </c>
       <c r="O2">
-        <v>44.15786957578705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.898456351435069</v>
+        <v>18.17315914604938</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.822562024359677</v>
+        <v>7.076474370936903</v>
       </c>
       <c r="E3">
-        <v>7.929860674220509</v>
+        <v>12.1670491377907</v>
       </c>
       <c r="F3">
-        <v>51.72296673158247</v>
+        <v>29.77453521375925</v>
       </c>
       <c r="G3">
-        <v>2.007694843988996</v>
+        <v>45.60087367894997</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>12.93493477750598</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>14.65445947124155</v>
       </c>
       <c r="J3">
-        <v>5.071304139716783</v>
+        <v>7.798402941019825</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.98518163113848</v>
       </c>
       <c r="M3">
-        <v>33.48531192641276</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>14.13526540607237</v>
+        <v>13.06454249693391</v>
       </c>
       <c r="O3">
-        <v>41.23142294492401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.672277724713975</v>
+        <v>17.41008249534516</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.462314309802205</v>
+        <v>6.892931033027481</v>
       </c>
       <c r="E4">
-        <v>7.783169409422201</v>
+        <v>11.8598150672571</v>
       </c>
       <c r="F4">
-        <v>49.51150668018349</v>
+        <v>28.97649397371111</v>
       </c>
       <c r="G4">
-        <v>2.022181610870335</v>
+        <v>43.83222374255148</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>12.66021345789707</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>14.91902226008718</v>
       </c>
       <c r="J4">
-        <v>5.136444907206271</v>
+        <v>7.679890662490132</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.45697456059871</v>
       </c>
       <c r="M4">
-        <v>31.77386343848008</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>14.08678743491452</v>
+        <v>13.12823006201433</v>
       </c>
       <c r="O4">
-        <v>39.43805452422573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.578625313365261</v>
+        <v>17.09068070954358</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.313293238797448</v>
+        <v>6.817056344910001</v>
       </c>
       <c r="E5">
-        <v>7.72347739190784</v>
+        <v>11.73261750671648</v>
       </c>
       <c r="F5">
-        <v>48.61154901529306</v>
+        <v>28.65389257468054</v>
       </c>
       <c r="G5">
-        <v>2.028096875038839</v>
+        <v>43.10471534148503</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>12.55004636128955</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>15.02960782992491</v>
       </c>
       <c r="J5">
-        <v>5.163199693650265</v>
+        <v>7.631196521235364</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.23664982119667</v>
       </c>
       <c r="M5">
-        <v>31.05866960141162</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>14.06814368831681</v>
+        <v>13.15521025414087</v>
       </c>
       <c r="O5">
-        <v>38.70731787873167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.562988829751608</v>
+        <v>17.03713972478592</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.288407728319377</v>
+        <v>6.804392764330654</v>
       </c>
       <c r="E6">
-        <v>7.713568336471203</v>
+        <v>11.71137790346479</v>
       </c>
       <c r="F6">
-        <v>48.46216788214996</v>
+        <v>28.60049282920037</v>
       </c>
       <c r="G6">
-        <v>2.029080318132714</v>
+        <v>42.98352718417999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>12.53186332373904</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>15.04813518028334</v>
       </c>
       <c r="J6">
-        <v>5.167656231141236</v>
+        <v>7.623087356954731</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.19976294145234</v>
       </c>
       <c r="M6">
-        <v>30.93881453203984</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>14.0651157651472</v>
+        <v>13.15975189901646</v>
       </c>
       <c r="O6">
-        <v>38.58596902030614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.671020522464305</v>
+        <v>17.40580888026308</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.460313850789121</v>
+        <v>6.891912107494321</v>
       </c>
       <c r="E7">
-        <v>7.782364147656978</v>
+        <v>11.8581076314538</v>
       </c>
       <c r="F7">
-        <v>49.49936544515051</v>
+        <v>28.97213223299049</v>
       </c>
       <c r="G7">
-        <v>2.02226131518843</v>
+        <v>43.82243871100873</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>12.65872037559569</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>14.92050255474727</v>
       </c>
       <c r="J7">
-        <v>5.136804825112857</v>
+        <v>7.679235547589164</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.45402354211258</v>
       </c>
       <c r="M7">
-        <v>31.76429115062966</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>14.08653146487513</v>
+        <v>13.12858978734057</v>
       </c>
       <c r="O7">
-        <v>39.4281999901787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.134392152714958</v>
+        <v>18.95814661414386</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.200148053930082</v>
+        <v>7.268606489902073</v>
       </c>
       <c r="E8">
-        <v>8.086964526173338</v>
+        <v>12.48789548455138</v>
       </c>
       <c r="F8">
-        <v>54.08955428812333</v>
+        <v>30.6340811403847</v>
       </c>
       <c r="G8">
-        <v>1.992222881606442</v>
+        <v>47.46314096687954</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>13.2339662831862</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>14.38193301181582</v>
       </c>
       <c r="J8">
-        <v>5.002375213651112</v>
+        <v>7.923450436150109</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>13.57743406427065</v>
       </c>
       <c r="M8">
-        <v>35.25347517343686</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>14.19071467377531</v>
+        <v>13.00013512880346</v>
       </c>
       <c r="O8">
-        <v>43.14748212786238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.988193243192372</v>
+        <v>21.72713856454152</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.606333533094585</v>
+        <v>7.97294483169812</v>
       </c>
       <c r="E9">
-        <v>8.696977853723325</v>
+        <v>13.65630101499501</v>
       </c>
       <c r="F9">
-        <v>63.46029311569183</v>
+        <v>33.95319561885815</v>
       </c>
       <c r="G9">
-        <v>1.931969078960794</v>
+        <v>54.34921514818144</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>14.41305457937835</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>13.42306167643865</v>
       </c>
       <c r="J9">
-        <v>4.741191081903476</v>
+        <v>8.388655093115482</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>15.79931989843388</v>
       </c>
       <c r="M9">
-        <v>41.61877691387114</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>14.42737795889732</v>
+        <v>12.78187868562828</v>
       </c>
       <c r="O9">
-        <v>50.99902570394389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.622713847713072</v>
+        <v>23.72638825206499</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.64548312088662</v>
+        <v>8.470507254691226</v>
       </c>
       <c r="E10">
-        <v>9.167446251841211</v>
+        <v>14.47327663190443</v>
       </c>
       <c r="F10">
-        <v>70.80582748963285</v>
+        <v>36.41758477045372</v>
       </c>
       <c r="G10">
-        <v>1.884785395889363</v>
+        <v>59.24198581724486</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>15.30792738509597</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>12.78899455971097</v>
       </c>
       <c r="J10">
-        <v>4.546011941455622</v>
+        <v>8.721769179674046</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>17.284552331168</v>
       </c>
       <c r="M10">
-        <v>46.1053213079297</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>14.61738935017425</v>
+        <v>12.6431770232921</v>
       </c>
       <c r="O10">
-        <v>57.06498660999936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.934226069611263</v>
+        <v>24.59273616390982</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>11.13145390181552</v>
+        <v>8.693037258308053</v>
       </c>
       <c r="E11">
-        <v>9.391953178819797</v>
+        <v>14.83617665615054</v>
       </c>
       <c r="F11">
-        <v>74.26458923144807</v>
+        <v>37.54361347193329</v>
       </c>
       <c r="G11">
-        <v>1.861966323977418</v>
+        <v>61.43961585779542</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>15.72115926306651</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>12.51919362481086</v>
       </c>
       <c r="J11">
-        <v>4.4549736916082</v>
+        <v>8.87148944061561</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>17.92988579964881</v>
       </c>
       <c r="M11">
-        <v>48.13953603647739</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>14.70599169040051</v>
+        <v>12.58505999192879</v>
       </c>
       <c r="O11">
-        <v>59.9094885034559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.049905504706276</v>
+        <v>24.91460539489538</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>11.3189517592656</v>
+        <v>8.77681627199974</v>
       </c>
       <c r="E12">
-        <v>9.479253107512141</v>
+        <v>14.97238735141877</v>
       </c>
       <c r="F12">
-        <v>75.60123473827932</v>
+        <v>37.97078005305271</v>
       </c>
       <c r="G12">
-        <v>1.853037822364147</v>
+        <v>62.2823967912727</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>15.87855304405979</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>12.42007292118499</v>
       </c>
       <c r="J12">
-        <v>4.419991161418839</v>
+        <v>8.927938042822531</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>18.17004778400793</v>
       </c>
       <c r="M12">
-        <v>48.91327717681673</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>14.73967035416883</v>
+        <v>12.5637944107069</v>
       </c>
       <c r="O12">
-        <v>61.00713813167243</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.025092063806389</v>
+        <v>24.84555857495619</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>11.2783836855601</v>
+        <v>8.758793536071456</v>
       </c>
       <c r="E13">
-        <v>9.460333381906546</v>
+        <v>14.94310484382367</v>
       </c>
       <c r="F13">
-        <v>75.3119587180372</v>
+        <v>37.8787462978264</v>
       </c>
       <c r="G13">
-        <v>1.854975431307144</v>
+        <v>62.1011339066448</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>15.8446141321697</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>12.441278125985</v>
       </c>
       <c r="J13">
-        <v>4.427551573412737</v>
+        <v>8.915791509443419</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>18.11850943164396</v>
       </c>
       <c r="M13">
-        <v>48.74639492148051</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>14.73241533468306</v>
+        <v>12.5683408934712</v>
       </c>
       <c r="O13">
-        <v>60.76965568612236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.943788367728962</v>
+        <v>24.61933997649424</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>11.14679840637152</v>
+        <v>8.69993918806227</v>
       </c>
       <c r="E14">
-        <v>9.399083814567961</v>
+        <v>14.84740672770622</v>
       </c>
       <c r="F14">
-        <v>74.37394326542291</v>
+        <v>37.57874078856926</v>
       </c>
       <c r="G14">
-        <v>1.861238204376538</v>
+        <v>61.50906311802936</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>15.73408959488821</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>12.5109754538821</v>
       </c>
       <c r="J14">
-        <v>4.452107147916696</v>
+        <v>8.876138346027332</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>17.94972758936436</v>
       </c>
       <c r="M14">
-        <v>48.20309152896032</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>14.70876128968048</v>
+        <v>12.58329543093264</v>
       </c>
       <c r="O14">
-        <v>59.99932138214261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.893692596697576</v>
+        <v>24.47997141181062</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11.06670893309956</v>
+        <v>8.663827690791505</v>
       </c>
       <c r="E15">
-        <v>9.361893528491169</v>
+        <v>14.78863284236839</v>
       </c>
       <c r="F15">
-        <v>73.80325713613536</v>
+        <v>37.3950813402403</v>
       </c>
       <c r="G15">
-        <v>1.86503348686862</v>
+        <v>61.14567656967098</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>15.6665102477114</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>12.55407612611182</v>
       </c>
       <c r="J15">
-        <v>4.4670753190706</v>
+        <v>8.851817999262208</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>17.84579993589829</v>
       </c>
       <c r="M15">
-        <v>47.87091110532475</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>14.69428205111544</v>
+        <v>12.59255296544318</v>
       </c>
       <c r="O15">
-        <v>59.53044621925556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.602031920890877</v>
+        <v>23.66889584286537</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.61410967523045</v>
+        <v>8.455892410615446</v>
       </c>
       <c r="E16">
-        <v>9.153043674372553</v>
+        <v>14.44938766849431</v>
       </c>
       <c r="F16">
-        <v>70.58291083178953</v>
+        <v>36.34409819513595</v>
       </c>
       <c r="G16">
-        <v>1.886242328938378</v>
+        <v>59.09813017547209</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>15.28104707801613</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>12.80703135631427</v>
       </c>
       <c r="J16">
-        <v>4.551901864954315</v>
+        <v>8.711949073042025</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>17.2417805927811</v>
       </c>
       <c r="M16">
-        <v>45.97258158555999</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>14.61162863559263</v>
+        <v>12.64707748519405</v>
       </c>
       <c r="O16">
-        <v>56.88143294666978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.418958030521738</v>
+        <v>23.16014801523072</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.34077199436867</v>
+        <v>8.327391600206472</v>
       </c>
       <c r="E17">
-        <v>9.028056311812167</v>
+        <v>14.23905706599706</v>
       </c>
       <c r="F17">
-        <v>68.64325278512896</v>
+        <v>35.7006319928358</v>
       </c>
       <c r="G17">
-        <v>1.898851241380593</v>
+        <v>57.83353275809637</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>15.04616257406091</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>12.96722236459377</v>
       </c>
       <c r="J17">
-        <v>4.603251249639082</v>
+        <v>8.625686344902283</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>16.86357157590117</v>
       </c>
       <c r="M17">
-        <v>44.80890679311433</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>14.56137094444203</v>
+        <v>12.68181971490809</v>
       </c>
       <c r="O17">
-        <v>55.28300762297184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.321743171908331</v>
+        <v>22.86338156821174</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.18468099511136</v>
+        <v>8.253117793187174</v>
       </c>
       <c r="E18">
-        <v>8.957092452836649</v>
+        <v>14.11725308202611</v>
       </c>
       <c r="F18">
-        <v>67.53786054724513</v>
+        <v>35.33098604864187</v>
       </c>
       <c r="G18">
-        <v>1.905983180537058</v>
+        <v>57.10285275999411</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>14.91163856729322</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>13.06108823493319</v>
       </c>
       <c r="J18">
-        <v>4.632588190482847</v>
+        <v>8.575898159491905</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>16.64317361738431</v>
       </c>
       <c r="M18">
-        <v>44.13861796136574</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>14.53268242670644</v>
+        <v>12.70226949721455</v>
       </c>
       <c r="O18">
-        <v>54.37099587105561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.291885795950034</v>
+        <v>22.7621854843468</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.13198689720697</v>
+        <v>8.227905961007655</v>
       </c>
       <c r="E19">
-        <v>8.933206018168088</v>
+        <v>14.07586921694033</v>
       </c>
       <c r="F19">
-        <v>67.16511310267667</v>
+        <v>35.20590908562904</v>
       </c>
       <c r="G19">
-        <v>1.908379510932063</v>
+        <v>56.85488092662337</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>14.86618954811644</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>13.09315649468538</v>
       </c>
       <c r="J19">
-        <v>4.642491836575603</v>
+        <v>8.559010884760882</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>16.56805486512809</v>
       </c>
       <c r="M19">
-        <v>43.91139527696294</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>14.52301085193945</v>
+        <v>12.70927288167845</v>
       </c>
       <c r="O19">
-        <v>54.06326933159388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.43860618850125</v>
+        <v>23.21473353853452</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.36974346583786</v>
+        <v>8.341107973959112</v>
       </c>
       <c r="E20">
-        <v>9.04126111757247</v>
+        <v>14.26153248941181</v>
       </c>
       <c r="F20">
-        <v>68.84861267204239</v>
+        <v>35.76908252200424</v>
       </c>
       <c r="G20">
-        <v>1.897522013961914</v>
+        <v>57.96849295841943</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>15.07110678741059</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>12.94998848080614</v>
       </c>
       <c r="J20">
-        <v>4.597806636736363</v>
+        <v>8.634886902872502</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>16.90412777967891</v>
       </c>
       <c r="M20">
-        <v>44.9328563814174</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>14.56669943799416</v>
+        <v>12.67807283277761</v>
       </c>
       <c r="O20">
-        <v>55.45235184444303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.967730534879388</v>
+        <v>24.68595298911394</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>11.18533799279105</v>
+        <v>8.717238823446795</v>
       </c>
       <c r="E21">
-        <v>9.417004226452365</v>
+        <v>14.87554798408575</v>
       </c>
       <c r="F21">
-        <v>74.64862879080121</v>
+        <v>37.66683807566032</v>
       </c>
       <c r="G21">
-        <v>1.859407413785888</v>
+        <v>61.68311909747815</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>15.76652820107234</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>12.49041764584582</v>
       </c>
       <c r="J21">
-        <v>4.44491018923464</v>
+        <v>8.88779199805508</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>17.99941597349001</v>
       </c>
       <c r="M21">
-        <v>48.36253539103379</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>14.71570753107448</v>
+        <v>12.57888256325009</v>
       </c>
       <c r="O21">
-        <v>60.22494656837863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.300284178474785</v>
+        <v>25.6114235293173</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11.73993707024527</v>
+        <v>8.960256703224717</v>
       </c>
       <c r="E22">
-        <v>9.676573207496464</v>
+        <v>15.26981876144277</v>
       </c>
       <c r="F22">
-        <v>78.60450895148252</v>
+        <v>38.91167639786958</v>
       </c>
       <c r="G22">
-        <v>1.832745038216305</v>
+        <v>64.12607474216922</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>16.22637831776675</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>12.20805217912458</v>
       </c>
       <c r="J22">
-        <v>4.341877633218743</v>
+        <v>9.051651933812318</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>18.6907799256625</v>
       </c>
       <c r="M22">
-        <v>50.62766140677311</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>14.81366951983494</v>
+        <v>12.51839490322353</v>
       </c>
       <c r="O22">
-        <v>63.47057240603724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.123977728663167</v>
+        <v>25.12073584508978</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>11.44123941212247</v>
+        <v>8.830785727165168</v>
       </c>
       <c r="E23">
-        <v>9.536386572232399</v>
+        <v>15.06001023786476</v>
       </c>
       <c r="F23">
-        <v>76.47341324416476</v>
+        <v>38.24682528454429</v>
       </c>
       <c r="G23">
-        <v>1.847177939110464</v>
+        <v>62.82506303918619</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>15.9804400922675</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>12.3569672265485</v>
       </c>
       <c r="J23">
-        <v>4.39723315015326</v>
+        <v>8.9643206326304</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>18.32397257243282</v>
       </c>
       <c r="M23">
-        <v>49.41454943643009</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>14.7614202182734</v>
+        <v>12.55027215850682</v>
       </c>
       <c r="O23">
-        <v>61.72293149570447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.42972822786791</v>
+        <v>23.19006876576484</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.35664228650653</v>
+        <v>8.334908042194561</v>
       </c>
       <c r="E24">
-        <v>9.035288495976006</v>
+        <v>14.25137410124498</v>
       </c>
       <c r="F24">
-        <v>68.7557398078347</v>
+        <v>35.73813513281228</v>
       </c>
       <c r="G24">
-        <v>1.898123316016377</v>
+        <v>57.90748882938735</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>15.05982790850308</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>12.95777443341955</v>
       </c>
       <c r="J24">
-        <v>4.600268707994915</v>
+        <v>8.630727937649663</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>16.88580155227367</v>
       </c>
       <c r="M24">
-        <v>44.87682305227011</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>14.56428977406119</v>
+        <v>12.67976531747518</v>
       </c>
       <c r="O24">
-        <v>55.37577025988583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.763600558125687</v>
+        <v>21.00791560647896</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.227903594291011</v>
+        <v>7.786021612492498</v>
       </c>
       <c r="E25">
-        <v>8.529418830833837</v>
+        <v>13.34750670231281</v>
       </c>
       <c r="F25">
-        <v>60.81145853179684</v>
+        <v>33.0502384889047</v>
       </c>
       <c r="G25">
-        <v>1.94859408770933</v>
+        <v>52.51537556814419</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>14.08894672896656</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>13.67105238751801</v>
       </c>
       <c r="J25">
-        <v>4.812011397429651</v>
+        <v>8.264325584848866</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>15.22460063505357</v>
       </c>
       <c r="M25">
-        <v>39.93914135282731</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>14.36018679902215</v>
+        <v>12.83720951238978</v>
       </c>
       <c r="O25">
-        <v>48.80102100555069</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_10/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.36031491451516</v>
+        <v>17.97725937601226</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.368335908790642</v>
+        <v>8.149424081277266</v>
       </c>
       <c r="E2">
-        <v>12.65410309363841</v>
+        <v>13.04721537596023</v>
       </c>
       <c r="F2">
-        <v>31.08900303241227</v>
+        <v>37.30377486676422</v>
       </c>
       <c r="G2">
-        <v>48.43329551316913</v>
+        <v>45.37427097910122</v>
       </c>
       <c r="H2">
-        <v>13.39341511105149</v>
+        <v>17.79196693951939</v>
       </c>
       <c r="I2">
-        <v>14.24226096596978</v>
+        <v>25.38690279205079</v>
       </c>
       <c r="J2">
-        <v>7.988717214912181</v>
+        <v>9.91454894342046</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>13.90199024285372</v>
+        <v>13.43837388620201</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.96756836068194</v>
+        <v>18.37422271430653</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.17315914604938</v>
+        <v>17.65268489091354</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.076474370936903</v>
+        <v>8.066555722567731</v>
       </c>
       <c r="E3">
-        <v>12.1670491377907</v>
+        <v>12.9003322832672</v>
       </c>
       <c r="F3">
-        <v>29.77453521375925</v>
+        <v>37.20481862321027</v>
       </c>
       <c r="G3">
-        <v>45.60087367894997</v>
+        <v>44.8485396325957</v>
       </c>
       <c r="H3">
-        <v>12.93493477750598</v>
+        <v>17.77857222290829</v>
       </c>
       <c r="I3">
-        <v>14.65445947124155</v>
+        <v>25.54584260771767</v>
       </c>
       <c r="J3">
-        <v>7.798402941019825</v>
+        <v>9.867384831987568</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.98518163113848</v>
+        <v>13.2401757425236</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.06454249693391</v>
+        <v>18.41548558739757</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.41008249534516</v>
+        <v>17.45315289488404</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.892931033027481</v>
+        <v>8.01447824721417</v>
       </c>
       <c r="E4">
-        <v>11.8598150672571</v>
+        <v>12.80834658710939</v>
       </c>
       <c r="F4">
-        <v>28.97649397371111</v>
+        <v>37.15577890128522</v>
       </c>
       <c r="G4">
-        <v>43.83222374255148</v>
+        <v>44.5403741767387</v>
       </c>
       <c r="H4">
-        <v>12.66021345789707</v>
+        <v>17.77509798603262</v>
       </c>
       <c r="I4">
-        <v>14.91902226008718</v>
+        <v>25.64868481696153</v>
       </c>
       <c r="J4">
-        <v>7.679890662490132</v>
+        <v>9.838102571993637</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.45697456059871</v>
+        <v>13.11939593948662</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.12823006201433</v>
+        <v>18.44288460895341</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.09068070954358</v>
+        <v>17.37188473315764</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.817056344910001</v>
+        <v>7.992962597681598</v>
       </c>
       <c r="E5">
-        <v>11.73261750671648</v>
+        <v>12.77042751142811</v>
       </c>
       <c r="F5">
-        <v>28.65389257468054</v>
+        <v>37.13874962848143</v>
       </c>
       <c r="G5">
-        <v>43.10471534148503</v>
+        <v>44.41862309677484</v>
       </c>
       <c r="H5">
-        <v>12.55004636128955</v>
+        <v>17.77487592687035</v>
       </c>
       <c r="I5">
-        <v>15.02960782992491</v>
+        <v>25.69191589127711</v>
       </c>
       <c r="J5">
-        <v>7.631196521235364</v>
+        <v>9.826091555608782</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.23664982119667</v>
+        <v>13.07046429340689</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.15521025414087</v>
+        <v>18.45456975779411</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.03713972478592</v>
+        <v>17.35839585752686</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.804392764330654</v>
+        <v>7.989372413120847</v>
       </c>
       <c r="E6">
-        <v>11.71137790346479</v>
+        <v>12.76410539236529</v>
       </c>
       <c r="F6">
-        <v>28.60049282920037</v>
+        <v>37.13610054795073</v>
       </c>
       <c r="G6">
-        <v>42.98352718417999</v>
+        <v>44.39864182105831</v>
       </c>
       <c r="H6">
-        <v>12.53186332373904</v>
+        <v>17.77491111181981</v>
       </c>
       <c r="I6">
-        <v>15.04813518028334</v>
+        <v>25.69917426437953</v>
       </c>
       <c r="J6">
-        <v>7.623087356954731</v>
+        <v>9.824092497079532</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.19976294145234</v>
+        <v>13.06235823616969</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.15975189901646</v>
+        <v>18.4565414922259</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.40580888026308</v>
+        <v>17.45205657295864</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.891912107494321</v>
+        <v>8.014189259170221</v>
       </c>
       <c r="E7">
-        <v>11.8581076314538</v>
+        <v>12.80783693080043</v>
       </c>
       <c r="F7">
-        <v>28.97213223299049</v>
+        <v>37.15553726732238</v>
       </c>
       <c r="G7">
-        <v>43.82243871100873</v>
+        <v>44.53871650749713</v>
       </c>
       <c r="H7">
-        <v>12.65872037559569</v>
+        <v>17.77509015972172</v>
       </c>
       <c r="I7">
-        <v>14.92050255474727</v>
+        <v>25.64926249182583</v>
       </c>
       <c r="J7">
-        <v>7.679235547589164</v>
+        <v>9.837940900075591</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.45402354211258</v>
+        <v>13.11873479245529</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.12858978734057</v>
+        <v>18.44304009295782</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.95814661414386</v>
+        <v>17.86545789195446</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.268606489902073</v>
+        <v>8.121103502950264</v>
       </c>
       <c r="E8">
-        <v>12.48789548455138</v>
+        <v>12.99695425617334</v>
       </c>
       <c r="F8">
-        <v>30.6340811403847</v>
+        <v>37.26722808416613</v>
       </c>
       <c r="G8">
-        <v>47.46314096687954</v>
+        <v>45.19005327332934</v>
       </c>
       <c r="H8">
-        <v>13.2339662831862</v>
+        <v>17.78636236314325</v>
       </c>
       <c r="I8">
-        <v>14.38193301181582</v>
+        <v>25.44061582221426</v>
       </c>
       <c r="J8">
-        <v>7.923450436150109</v>
+        <v>9.898355686706156</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>13.57743406427065</v>
+        <v>13.36987961340567</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.00013512880346</v>
+        <v>18.38802245331356</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.72713856454152</v>
+        <v>18.66977226703289</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.97294483169812</v>
+        <v>8.320970593594312</v>
       </c>
       <c r="E9">
-        <v>13.65630101499501</v>
+        <v>13.3527607938316</v>
       </c>
       <c r="F9">
-        <v>33.95319561885815</v>
+        <v>37.5787341633706</v>
       </c>
       <c r="G9">
-        <v>54.34921514818144</v>
+        <v>46.57646908309327</v>
       </c>
       <c r="H9">
-        <v>14.41305457937835</v>
+        <v>17.84615211921223</v>
       </c>
       <c r="I9">
-        <v>13.42306167643865</v>
+        <v>25.07307953185558</v>
       </c>
       <c r="J9">
-        <v>8.388655093115482</v>
+        <v>10.01413155991764</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>15.79931989843388</v>
+        <v>13.86712703938943</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.78187868562828</v>
+        <v>18.29646402108877</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.72638825206499</v>
+        <v>19.25107117294269</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.470507254691226</v>
+        <v>8.461453600970524</v>
       </c>
       <c r="E10">
-        <v>14.47327663190443</v>
+        <v>13.60398517613219</v>
       </c>
       <c r="F10">
-        <v>36.41758477045372</v>
+        <v>37.86304998927843</v>
       </c>
       <c r="G10">
-        <v>59.24198581724486</v>
+        <v>47.65174284703573</v>
       </c>
       <c r="H10">
-        <v>15.30792738509597</v>
+        <v>17.91298957833267</v>
       </c>
       <c r="I10">
-        <v>12.78899455971097</v>
+        <v>24.82834299281459</v>
       </c>
       <c r="J10">
-        <v>8.721769179674046</v>
+        <v>10.0973731735391</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>17.284552331168</v>
+        <v>14.23203618218331</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.6431770232921</v>
+        <v>18.23909643483699</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.59273616390982</v>
+        <v>19.51228179054754</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.693037258308053</v>
+        <v>8.523902451951789</v>
       </c>
       <c r="E11">
-        <v>14.83617665615054</v>
+        <v>13.71585601518085</v>
       </c>
       <c r="F11">
-        <v>37.54361347193329</v>
+        <v>38.00416014866714</v>
       </c>
       <c r="G11">
-        <v>61.43961585779542</v>
+        <v>48.15102060339342</v>
       </c>
       <c r="H11">
-        <v>15.72115926306651</v>
+        <v>17.94833668697557</v>
       </c>
       <c r="I11">
-        <v>12.51919362481086</v>
+        <v>24.72248291549465</v>
       </c>
       <c r="J11">
-        <v>8.87148944061561</v>
+        <v>10.13480958751722</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>17.92988579964881</v>
+        <v>14.39726905666481</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.58505999192879</v>
+        <v>18.21513674568</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.91460539489538</v>
+        <v>19.61064187849013</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.77681627199974</v>
+        <v>8.547334012436064</v>
       </c>
       <c r="E12">
-        <v>14.97238735141877</v>
+        <v>13.75785491777325</v>
       </c>
       <c r="F12">
-        <v>37.97078005305271</v>
+        <v>38.05925931368659</v>
       </c>
       <c r="G12">
-        <v>62.2823967912727</v>
+        <v>48.34135362738668</v>
       </c>
       <c r="H12">
-        <v>15.87855304405979</v>
+        <v>17.96242791571753</v>
       </c>
       <c r="I12">
-        <v>12.42007292118499</v>
+        <v>24.68318254644672</v>
       </c>
       <c r="J12">
-        <v>8.927938042822531</v>
+        <v>10.14892057998708</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>18.17004778400793</v>
+        <v>14.45967328687346</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.5637944107069</v>
+        <v>18.20637026077617</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.84555857495619</v>
+        <v>19.58948434084045</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.758793536071456</v>
+        <v>8.542297341168844</v>
       </c>
       <c r="E13">
-        <v>14.94310484382367</v>
+        <v>13.74882616742151</v>
       </c>
       <c r="F13">
-        <v>37.8787462978264</v>
+        <v>38.04731922427659</v>
       </c>
       <c r="G13">
-        <v>62.1011339066448</v>
+        <v>48.30030865281651</v>
       </c>
       <c r="H13">
-        <v>15.8446141321697</v>
+        <v>17.95936180054249</v>
       </c>
       <c r="I13">
-        <v>12.441278125985</v>
+        <v>24.69161160562702</v>
       </c>
       <c r="J13">
-        <v>8.915791509443419</v>
+        <v>10.14588448728127</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>18.11850943164396</v>
+        <v>14.446241662717</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.5683408934712</v>
+        <v>18.20824465953273</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.61933997649424</v>
+        <v>19.52038555501044</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.69993918806227</v>
+        <v>8.525834557418706</v>
       </c>
       <c r="E14">
-        <v>14.84740672770622</v>
+        <v>13.71931868526026</v>
       </c>
       <c r="F14">
-        <v>37.57874078856926</v>
+        <v>38.00866002392473</v>
       </c>
       <c r="G14">
-        <v>61.50906311802936</v>
+        <v>48.1666551003899</v>
       </c>
       <c r="H14">
-        <v>15.73408959488821</v>
+        <v>17.94948186083386</v>
       </c>
       <c r="I14">
-        <v>12.5109754538821</v>
+        <v>24.71923388819374</v>
       </c>
       <c r="J14">
-        <v>8.876138346027332</v>
+        <v>10.13597183710808</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>17.94972758936436</v>
+        <v>14.40240672672562</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.58329543093264</v>
+        <v>18.21440938283769</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.47997141181062</v>
+        <v>19.47798569794349</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.663827690791505</v>
+        <v>8.515722236605971</v>
       </c>
       <c r="E15">
-        <v>14.78863284236839</v>
+        <v>13.70119657390326</v>
       </c>
       <c r="F15">
-        <v>37.3950813402403</v>
+        <v>37.98519590138444</v>
       </c>
       <c r="G15">
-        <v>61.14567656967098</v>
+        <v>48.08494786880098</v>
       </c>
       <c r="H15">
-        <v>15.6665102477114</v>
+        <v>17.94352190533314</v>
       </c>
       <c r="I15">
-        <v>12.55407612611182</v>
+        <v>24.73625575859308</v>
       </c>
       <c r="J15">
-        <v>8.851817999262208</v>
+        <v>10.12989143793819</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>17.84579993589829</v>
+        <v>14.37553334100607</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.59255296544318</v>
+        <v>18.21822534995734</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.66889584286537</v>
+        <v>19.23392766452794</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.455892410615446</v>
+        <v>8.4573425001216</v>
       </c>
       <c r="E16">
-        <v>14.44938766849431</v>
+        <v>13.59662412239759</v>
       </c>
       <c r="F16">
-        <v>36.34409819513595</v>
+        <v>37.85406260099905</v>
       </c>
       <c r="G16">
-        <v>59.09813017547209</v>
+        <v>47.61930153949388</v>
       </c>
       <c r="H16">
-        <v>15.28104707801613</v>
+        <v>17.91077863898603</v>
       </c>
       <c r="I16">
-        <v>12.80703135631427</v>
+        <v>24.83537127652481</v>
       </c>
       <c r="J16">
-        <v>8.711949073042025</v>
+        <v>10.09491765657462</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>17.2417805927811</v>
+        <v>14.22121760341699</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.64707748519405</v>
+        <v>18.24070519366562</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.16014801523072</v>
+        <v>19.08331372446585</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.327391600206472</v>
+        <v>8.421150155809968</v>
       </c>
       <c r="E17">
-        <v>14.23905706599706</v>
+        <v>13.53184198650111</v>
       </c>
       <c r="F17">
-        <v>35.7006319928358</v>
+        <v>37.77661232808812</v>
       </c>
       <c r="G17">
-        <v>57.83353275809637</v>
+        <v>47.33610264194153</v>
       </c>
       <c r="H17">
-        <v>15.04616257406091</v>
+        <v>17.89195456623945</v>
       </c>
       <c r="I17">
-        <v>12.96722236459377</v>
+        <v>24.89757664781699</v>
       </c>
       <c r="J17">
-        <v>8.625686344902283</v>
+        <v>10.07334963607229</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>16.86357157590117</v>
+        <v>14.12631344257897</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.68181971490809</v>
+        <v>18.25504265306029</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.86338156821174</v>
+        <v>18.99638614681206</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.253117793187174</v>
+        <v>8.400196481604361</v>
       </c>
       <c r="E18">
-        <v>14.11725308202611</v>
+        <v>13.49435494784939</v>
       </c>
       <c r="F18">
-        <v>35.33098604864187</v>
+        <v>37.73317512034298</v>
       </c>
       <c r="G18">
-        <v>57.10285275999411</v>
+        <v>47.17417904743054</v>
       </c>
       <c r="H18">
-        <v>14.91163856729322</v>
+        <v>17.88159300288061</v>
       </c>
       <c r="I18">
-        <v>13.06108823493319</v>
+        <v>24.93387057406272</v>
       </c>
       <c r="J18">
-        <v>8.575898159491905</v>
+        <v>10.06090395624559</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>16.64317361738431</v>
+        <v>14.07165818810553</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.70226949721455</v>
+        <v>18.26349038189626</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.7621854843468</v>
+        <v>18.96690555655881</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.227905961007655</v>
+        <v>8.393078645334416</v>
       </c>
       <c r="E19">
-        <v>14.07586921694033</v>
+        <v>13.48162418824461</v>
       </c>
       <c r="F19">
-        <v>35.20590908562904</v>
+        <v>37.71865953046228</v>
       </c>
       <c r="G19">
-        <v>56.85488092662337</v>
+        <v>47.1195259898514</v>
       </c>
       <c r="H19">
-        <v>14.86618954811644</v>
+        <v>17.87816483954363</v>
       </c>
       <c r="I19">
-        <v>13.09315649468538</v>
+        <v>24.94624754371855</v>
       </c>
       <c r="J19">
-        <v>8.559010884760882</v>
+        <v>10.05668324190212</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>16.56805486512809</v>
+        <v>14.05314275424419</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.70927288167845</v>
+        <v>18.26638521836262</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.21473353853452</v>
+        <v>19.09937839497907</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.341107973959112</v>
+        <v>8.425017100770491</v>
       </c>
       <c r="E20">
-        <v>14.26153248941181</v>
+        <v>13.53876167934442</v>
       </c>
       <c r="F20">
-        <v>35.76908252200424</v>
+        <v>37.78474234744905</v>
       </c>
       <c r="G20">
-        <v>57.96849295841943</v>
+        <v>47.36615115338552</v>
       </c>
       <c r="H20">
-        <v>15.07110678741059</v>
+        <v>17.89391026945747</v>
       </c>
       <c r="I20">
-        <v>12.94998848080614</v>
+        <v>24.89090147750538</v>
       </c>
       <c r="J20">
-        <v>8.634886902872502</v>
+        <v>10.07564978707057</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>16.90412777967891</v>
+        <v>14.13642369211948</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.67807283277761</v>
+        <v>18.25349558818406</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.68595298911394</v>
+        <v>19.54069729870122</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.717238823446795</v>
+        <v>8.530676004583869</v>
       </c>
       <c r="E21">
-        <v>14.87554798408575</v>
+        <v>13.72799576589842</v>
       </c>
       <c r="F21">
-        <v>37.66683807566032</v>
+        <v>38.01997026195698</v>
       </c>
       <c r="G21">
-        <v>61.68311909747815</v>
+        <v>48.20587950146474</v>
       </c>
       <c r="H21">
-        <v>15.76652820107234</v>
+        <v>17.95236471875414</v>
       </c>
       <c r="I21">
-        <v>12.49041764584582</v>
+        <v>24.71109920934649</v>
       </c>
       <c r="J21">
-        <v>8.88779199805508</v>
+        <v>10.13888522420072</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>17.99941597349001</v>
+        <v>14.41528704601741</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.57888256325009</v>
+        <v>18.2125903412394</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.6114235293173</v>
+        <v>19.82585273440147</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.960256703224717</v>
+        <v>8.59846544594078</v>
       </c>
       <c r="E22">
-        <v>15.26981876144277</v>
+        <v>13.8495409963963</v>
       </c>
       <c r="F22">
-        <v>38.91167639786958</v>
+        <v>38.18338742115969</v>
       </c>
       <c r="G22">
-        <v>64.12607474216922</v>
+        <v>48.76199023275429</v>
       </c>
       <c r="H22">
-        <v>16.22637831776675</v>
+        <v>17.99468060784865</v>
       </c>
       <c r="I22">
-        <v>12.20805217912458</v>
+        <v>24.5981725712501</v>
       </c>
       <c r="J22">
-        <v>9.051651933812318</v>
+        <v>10.17983064178156</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>18.6907799256625</v>
+        <v>14.59654911712611</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.51839490322353</v>
+        <v>18.187642730242</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.12073584508978</v>
+        <v>19.67398808570496</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.830785727165168</v>
+        <v>8.562402887479378</v>
       </c>
       <c r="E23">
-        <v>15.06001023786476</v>
+        <v>13.78487048647307</v>
       </c>
       <c r="F23">
-        <v>38.24682528454429</v>
+        <v>38.09529318551416</v>
       </c>
       <c r="G23">
-        <v>62.82506303918619</v>
+        <v>48.46457803023125</v>
       </c>
       <c r="H23">
-        <v>15.9804400922675</v>
+        <v>17.97172131729909</v>
       </c>
       <c r="I23">
-        <v>12.3569672265485</v>
+        <v>24.65802422199751</v>
       </c>
       <c r="J23">
-        <v>8.9643206326304</v>
+        <v>10.15801344768603</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>18.32397257243282</v>
+        <v>14.49991472630289</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.55027215850682</v>
+        <v>18.20079454621153</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.19006876576484</v>
+        <v>19.09211660209206</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.334908042194561</v>
+        <v>8.423269309852808</v>
       </c>
       <c r="E24">
-        <v>14.25137410124498</v>
+        <v>13.53563404155485</v>
       </c>
       <c r="F24">
-        <v>35.73813513281228</v>
+        <v>37.78106336845888</v>
       </c>
       <c r="G24">
-        <v>57.90748882938735</v>
+        <v>47.35256343103647</v>
       </c>
       <c r="H24">
-        <v>15.05982790850308</v>
+        <v>17.89302466087817</v>
       </c>
       <c r="I24">
-        <v>12.95777443341955</v>
+        <v>24.89391766731789</v>
       </c>
       <c r="J24">
-        <v>8.630727937649663</v>
+        <v>10.07461003162863</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>16.88580155227367</v>
+        <v>14.13185313556205</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.67976531747518</v>
+        <v>18.25419437783622</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.00791560647896</v>
+        <v>18.45347235008077</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.786021612492498</v>
+        <v>8.267990314673861</v>
       </c>
       <c r="E25">
-        <v>13.34750670231281</v>
+        <v>13.25822301236109</v>
       </c>
       <c r="F25">
-        <v>33.0502384889047</v>
+        <v>37.48464384374919</v>
       </c>
       <c r="G25">
-        <v>52.51537556814419</v>
+        <v>46.19071824972472</v>
       </c>
       <c r="H25">
-        <v>14.08894672896656</v>
+        <v>17.825945696638</v>
       </c>
       <c r="I25">
-        <v>13.67105238751801</v>
+        <v>25.16806087693466</v>
       </c>
       <c r="J25">
-        <v>8.264325584848866</v>
+        <v>9.983117803613165</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>15.22460063505357</v>
+        <v>13.73244541059914</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.83720951238978</v>
+        <v>18.31949043918981</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_10/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.97725937601226</v>
+        <v>19.36031491451517</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.149424081277266</v>
+        <v>7.368335908790572</v>
       </c>
       <c r="E2">
-        <v>13.04721537596023</v>
+        <v>12.65410309363835</v>
       </c>
       <c r="F2">
-        <v>37.30377486676422</v>
+        <v>31.08900303241228</v>
       </c>
       <c r="G2">
-        <v>45.37427097910122</v>
+        <v>48.43329551316911</v>
       </c>
       <c r="H2">
-        <v>17.79196693951939</v>
+        <v>13.39341511105151</v>
       </c>
       <c r="I2">
-        <v>25.38690279205079</v>
+        <v>14.24226096596981</v>
       </c>
       <c r="J2">
-        <v>9.91454894342046</v>
+        <v>7.988717214912176</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>13.43837388620201</v>
+        <v>13.90199024285375</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.37422271430653</v>
+        <v>12.96756836068194</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.65268489091354</v>
+        <v>18.17315914604941</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.066555722567731</v>
+        <v>7.076474370936968</v>
       </c>
       <c r="E3">
-        <v>12.9003322832672</v>
+        <v>12.16704913779082</v>
       </c>
       <c r="F3">
-        <v>37.20481862321027</v>
+        <v>29.77453521375931</v>
       </c>
       <c r="G3">
-        <v>44.8485396325957</v>
+        <v>45.60087367894999</v>
       </c>
       <c r="H3">
-        <v>17.77857222290829</v>
+        <v>12.93493477750601</v>
       </c>
       <c r="I3">
-        <v>25.54584260771767</v>
+        <v>14.65445947124162</v>
       </c>
       <c r="J3">
-        <v>9.867384831987568</v>
+        <v>7.798402941019892</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>13.2401757425236</v>
+        <v>12.98518163113848</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.41548558739757</v>
+        <v>13.06454249693397</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.45315289488404</v>
+        <v>17.41008249534513</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.01447824721417</v>
+        <v>6.892931033027491</v>
       </c>
       <c r="E4">
-        <v>12.80834658710939</v>
+        <v>11.85981506725717</v>
       </c>
       <c r="F4">
-        <v>37.15577890128522</v>
+        <v>28.97649397371108</v>
       </c>
       <c r="G4">
-        <v>44.5403741767387</v>
+        <v>43.83222374255142</v>
       </c>
       <c r="H4">
-        <v>17.77509798603262</v>
+        <v>12.66021345789706</v>
       </c>
       <c r="I4">
-        <v>25.64868481696153</v>
+        <v>14.91902226008717</v>
       </c>
       <c r="J4">
-        <v>9.838102571993637</v>
+        <v>7.679890662490132</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>13.11939593948662</v>
+        <v>12.45697456059871</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.44288460895341</v>
+        <v>13.1282300620143</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.37188473315764</v>
+        <v>17.0906807095436</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.992962597681598</v>
+        <v>6.817056344909924</v>
       </c>
       <c r="E5">
-        <v>12.77042751142811</v>
+        <v>11.73261750671659</v>
       </c>
       <c r="F5">
-        <v>37.13874962848143</v>
+        <v>28.6538925746805</v>
       </c>
       <c r="G5">
-        <v>44.41862309677484</v>
+        <v>43.10471534148503</v>
       </c>
       <c r="H5">
-        <v>17.77487592687035</v>
+        <v>12.55004636128952</v>
       </c>
       <c r="I5">
-        <v>25.69191589127711</v>
+        <v>15.02960782992496</v>
       </c>
       <c r="J5">
-        <v>9.826091555608782</v>
+        <v>7.631196521235456</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>13.07046429340689</v>
+        <v>12.23664982119665</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.45456975779411</v>
+        <v>13.1552102541409</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.35839585752686</v>
+        <v>17.03713972478594</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.989372413120847</v>
+        <v>6.804392764330719</v>
       </c>
       <c r="E6">
-        <v>12.76410539236529</v>
+        <v>11.7113779034648</v>
       </c>
       <c r="F6">
-        <v>37.13610054795073</v>
+        <v>28.60049282920063</v>
       </c>
       <c r="G6">
-        <v>44.39864182105831</v>
+        <v>42.98352718418009</v>
       </c>
       <c r="H6">
-        <v>17.77491111181981</v>
+        <v>12.53186332373915</v>
       </c>
       <c r="I6">
-        <v>25.69917426437953</v>
+        <v>15.04813518028353</v>
       </c>
       <c r="J6">
-        <v>9.824092497079532</v>
+        <v>7.623087356954731</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>13.06235823616969</v>
+        <v>12.19976294145237</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.4565414922259</v>
+        <v>13.15975189901643</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.45205657295864</v>
+        <v>17.40580888026308</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.014189259170221</v>
+        <v>6.891912107494505</v>
       </c>
       <c r="E7">
-        <v>12.80783693080043</v>
+        <v>11.8581076314538</v>
       </c>
       <c r="F7">
-        <v>37.15553726732238</v>
+        <v>28.97213223299053</v>
       </c>
       <c r="G7">
-        <v>44.53871650749713</v>
+        <v>43.82243871100874</v>
       </c>
       <c r="H7">
-        <v>17.77509015972172</v>
+        <v>12.65872037559571</v>
       </c>
       <c r="I7">
-        <v>25.64926249182583</v>
+        <v>14.92050255474726</v>
       </c>
       <c r="J7">
-        <v>9.837940900075591</v>
+        <v>7.679235547589069</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>13.11873479245529</v>
+        <v>12.45402354211256</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.44304009295782</v>
+        <v>13.12858978734054</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.86545789195446</v>
+        <v>18.95814661414389</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.121103502950264</v>
+        <v>7.26860648990196</v>
       </c>
       <c r="E8">
-        <v>12.99695425617334</v>
+        <v>12.48789548455143</v>
       </c>
       <c r="F8">
-        <v>37.26722808416613</v>
+        <v>30.63408114038465</v>
       </c>
       <c r="G8">
-        <v>45.19005327332934</v>
+        <v>47.46314096687951</v>
       </c>
       <c r="H8">
-        <v>17.78636236314325</v>
+        <v>13.23396628318617</v>
       </c>
       <c r="I8">
-        <v>25.44061582221426</v>
+        <v>14.38193301181588</v>
       </c>
       <c r="J8">
-        <v>9.898355686706156</v>
+        <v>7.923450436150197</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>13.36987961340567</v>
+        <v>13.57743406427067</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.38802245331356</v>
+        <v>13.00013512880346</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.66977226703289</v>
+        <v>21.72713856454152</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.320970593594312</v>
+        <v>7.972944831698167</v>
       </c>
       <c r="E9">
-        <v>13.3527607938316</v>
+        <v>13.656301014995</v>
       </c>
       <c r="F9">
-        <v>37.5787341633706</v>
+        <v>33.95319561885818</v>
       </c>
       <c r="G9">
-        <v>46.57646908309327</v>
+        <v>54.34921514818149</v>
       </c>
       <c r="H9">
-        <v>17.84615211921223</v>
+        <v>14.41305457937835</v>
       </c>
       <c r="I9">
-        <v>25.07307953185558</v>
+        <v>13.42306167643873</v>
       </c>
       <c r="J9">
-        <v>10.01413155991764</v>
+        <v>8.388655093115476</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>13.86712703938943</v>
+        <v>15.79931989843391</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.29646402108877</v>
+        <v>12.7818786856283</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.25107117294269</v>
+        <v>23.72638825206504</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.461453600970524</v>
+        <v>8.470507254691286</v>
       </c>
       <c r="E10">
-        <v>13.60398517613219</v>
+        <v>14.47327663190455</v>
       </c>
       <c r="F10">
-        <v>37.86304998927843</v>
+        <v>36.41758477045372</v>
       </c>
       <c r="G10">
-        <v>47.65174284703573</v>
+        <v>59.24198581724504</v>
       </c>
       <c r="H10">
-        <v>17.91298957833267</v>
+        <v>15.30792738509596</v>
       </c>
       <c r="I10">
-        <v>24.82834299281459</v>
+        <v>12.78899455971084</v>
       </c>
       <c r="J10">
-        <v>10.0973731735391</v>
+        <v>8.721769179674125</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>14.23203618218331</v>
+        <v>17.28455233116807</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.23909643483699</v>
+        <v>12.64317702329206</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.51228179054754</v>
+        <v>24.5927361639098</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.523902451951789</v>
+        <v>8.693037258308001</v>
       </c>
       <c r="E11">
-        <v>13.71585601518085</v>
+        <v>14.83617665615044</v>
       </c>
       <c r="F11">
-        <v>38.00416014866714</v>
+        <v>37.54361347193329</v>
       </c>
       <c r="G11">
-        <v>48.15102060339342</v>
+        <v>61.4396158577953</v>
       </c>
       <c r="H11">
-        <v>17.94833668697557</v>
+        <v>15.72115926306652</v>
       </c>
       <c r="I11">
-        <v>24.72248291549465</v>
+        <v>12.51919362481106</v>
       </c>
       <c r="J11">
-        <v>10.13480958751722</v>
+        <v>8.871489440615575</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>14.39726905666481</v>
+        <v>17.92988579964878</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.21513674568</v>
+        <v>12.58505999192885</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.61064187849013</v>
+        <v>24.91460539489541</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.547334012436064</v>
+        <v>8.776816271999676</v>
       </c>
       <c r="E12">
-        <v>13.75785491777325</v>
+        <v>14.97238735141876</v>
       </c>
       <c r="F12">
-        <v>38.05925931368659</v>
+        <v>37.97078005305271</v>
       </c>
       <c r="G12">
-        <v>48.34135362738668</v>
+        <v>62.28239679127267</v>
       </c>
       <c r="H12">
-        <v>17.96242791571753</v>
+        <v>15.87855304405979</v>
       </c>
       <c r="I12">
-        <v>24.68318254644672</v>
+        <v>12.42007292118496</v>
       </c>
       <c r="J12">
-        <v>10.14892057998708</v>
+        <v>8.927938042822531</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>14.45967328687346</v>
+        <v>18.17004778400791</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.20637026077617</v>
+        <v>12.56379441070691</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.58948434084045</v>
+        <v>24.84555857495621</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.542297341168844</v>
+        <v>8.758793536071446</v>
       </c>
       <c r="E13">
-        <v>13.74882616742151</v>
+        <v>14.94310484382371</v>
       </c>
       <c r="F13">
-        <v>38.04731922427659</v>
+        <v>37.8787462978264</v>
       </c>
       <c r="G13">
-        <v>48.30030865281651</v>
+        <v>62.10113390664483</v>
       </c>
       <c r="H13">
-        <v>17.95936180054249</v>
+        <v>15.8446141321697</v>
       </c>
       <c r="I13">
-        <v>24.69161160562702</v>
+        <v>12.44127812598498</v>
       </c>
       <c r="J13">
-        <v>10.14588448728127</v>
+        <v>8.91579150944345</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>14.446241662717</v>
+        <v>18.11850943164397</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.20824465953273</v>
+        <v>12.56834089347118</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.52038555501044</v>
+        <v>24.61933997649428</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.525834557418706</v>
+        <v>8.699939188062324</v>
       </c>
       <c r="E14">
-        <v>13.71931868526026</v>
+        <v>14.84740672770621</v>
       </c>
       <c r="F14">
-        <v>38.00866002392473</v>
+        <v>37.57874078856919</v>
       </c>
       <c r="G14">
-        <v>48.1666551003899</v>
+        <v>61.50906311802925</v>
       </c>
       <c r="H14">
-        <v>17.94948186083386</v>
+        <v>15.7340895948882</v>
       </c>
       <c r="I14">
-        <v>24.71923388819374</v>
+        <v>12.51097545388206</v>
       </c>
       <c r="J14">
-        <v>10.13597183710808</v>
+        <v>8.876138346027327</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>14.40240672672562</v>
+        <v>17.94972758936429</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.21440938283769</v>
+        <v>12.58329543093265</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.47798569794349</v>
+        <v>24.47997141181063</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.515722236605971</v>
+        <v>8.663827690791454</v>
       </c>
       <c r="E15">
-        <v>13.70119657390326</v>
+        <v>14.78863284236834</v>
       </c>
       <c r="F15">
-        <v>37.98519590138444</v>
+        <v>37.39508134024032</v>
       </c>
       <c r="G15">
-        <v>48.08494786880098</v>
+        <v>61.14567656967107</v>
       </c>
       <c r="H15">
-        <v>17.94352190533314</v>
+        <v>15.66651024771141</v>
       </c>
       <c r="I15">
-        <v>24.73625575859308</v>
+        <v>12.55407612611175</v>
       </c>
       <c r="J15">
-        <v>10.12989143793819</v>
+        <v>8.851817999262156</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>14.37553334100607</v>
+        <v>17.84579993589831</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.21822534995734</v>
+        <v>12.59255296544315</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.23392766452794</v>
+        <v>23.66889584286541</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.4573425001216</v>
+        <v>8.455892410615515</v>
       </c>
       <c r="E16">
-        <v>13.59662412239759</v>
+        <v>14.44938766849421</v>
       </c>
       <c r="F16">
-        <v>37.85406260099905</v>
+        <v>36.34409819513601</v>
       </c>
       <c r="G16">
-        <v>47.61930153949388</v>
+        <v>59.09813017547222</v>
       </c>
       <c r="H16">
-        <v>17.91077863898603</v>
+        <v>15.28104707801614</v>
       </c>
       <c r="I16">
-        <v>24.83537127652481</v>
+        <v>12.80703135631419</v>
       </c>
       <c r="J16">
-        <v>10.09491765657462</v>
+        <v>8.711949073041946</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>14.22121760341699</v>
+        <v>17.24178059278115</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.24070519366562</v>
+        <v>12.64707748519402</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.08331372446585</v>
+        <v>23.16014801523076</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.421150155809968</v>
+        <v>8.327391600206404</v>
       </c>
       <c r="E17">
-        <v>13.53184198650111</v>
+        <v>14.23905706599711</v>
       </c>
       <c r="F17">
-        <v>37.77661232808812</v>
+        <v>35.70063199283584</v>
       </c>
       <c r="G17">
-        <v>47.33610264194153</v>
+        <v>57.83353275809657</v>
       </c>
       <c r="H17">
-        <v>17.89195456623945</v>
+        <v>15.04616257406088</v>
       </c>
       <c r="I17">
-        <v>24.89757664781699</v>
+        <v>12.96722236459362</v>
       </c>
       <c r="J17">
-        <v>10.07334963607229</v>
+        <v>8.625686344902366</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>14.12631344257897</v>
+        <v>16.86357157590116</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.25504265306029</v>
+        <v>12.68181971490799</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.99638614681206</v>
+        <v>22.86338156821173</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.400196481604361</v>
+        <v>8.253117793187167</v>
       </c>
       <c r="E18">
-        <v>13.49435494784939</v>
+        <v>14.11725308202606</v>
       </c>
       <c r="F18">
-        <v>37.73317512034298</v>
+        <v>35.33098604864187</v>
       </c>
       <c r="G18">
-        <v>47.17417904743054</v>
+        <v>57.10285275999416</v>
       </c>
       <c r="H18">
-        <v>17.88159300288061</v>
+        <v>14.91163856729318</v>
       </c>
       <c r="I18">
-        <v>24.93387057406272</v>
+        <v>13.06108823493321</v>
       </c>
       <c r="J18">
-        <v>10.06090395624559</v>
+        <v>8.575898159491938</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>14.07165818810553</v>
+        <v>16.64317361738433</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.26349038189626</v>
+        <v>12.70226949721454</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.96690555655881</v>
+        <v>22.76218548434688</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.393078645334416</v>
+        <v>8.227905961007618</v>
       </c>
       <c r="E19">
-        <v>13.48162418824461</v>
+        <v>14.07586921694017</v>
       </c>
       <c r="F19">
-        <v>37.71865953046228</v>
+        <v>35.20590908562903</v>
       </c>
       <c r="G19">
-        <v>47.1195259898514</v>
+        <v>56.85488092662344</v>
       </c>
       <c r="H19">
-        <v>17.87816483954363</v>
+        <v>14.86618954811641</v>
       </c>
       <c r="I19">
-        <v>24.94624754371855</v>
+        <v>13.09315649468525</v>
       </c>
       <c r="J19">
-        <v>10.05668324190212</v>
+        <v>8.559010884760756</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>14.05314275424419</v>
+        <v>16.56805486512812</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.26638521836262</v>
+        <v>12.70927288167839</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.09937839497907</v>
+        <v>23.21473353853452</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.425017100770491</v>
+        <v>8.341107973959067</v>
       </c>
       <c r="E20">
-        <v>13.53876167934442</v>
+        <v>14.26153248941181</v>
       </c>
       <c r="F20">
-        <v>37.78474234744905</v>
+        <v>35.7690825220042</v>
       </c>
       <c r="G20">
-        <v>47.36615115338552</v>
+        <v>57.96849295841948</v>
       </c>
       <c r="H20">
-        <v>17.89391026945747</v>
+        <v>15.07110678741056</v>
       </c>
       <c r="I20">
-        <v>24.89090147750538</v>
+        <v>12.94998848080612</v>
       </c>
       <c r="J20">
-        <v>10.07564978707057</v>
+        <v>8.634886902872502</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>14.13642369211948</v>
+        <v>16.90412777967892</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.25349558818406</v>
+        <v>12.67807283277761</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.54069729870122</v>
+        <v>24.68595298911391</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.530676004583869</v>
+        <v>8.717238823446804</v>
       </c>
       <c r="E21">
-        <v>13.72799576589842</v>
+        <v>14.87554798408578</v>
       </c>
       <c r="F21">
-        <v>38.01997026195698</v>
+        <v>37.66683807566034</v>
       </c>
       <c r="G21">
-        <v>48.20587950146474</v>
+        <v>61.68311909747818</v>
       </c>
       <c r="H21">
-        <v>17.95236471875414</v>
+        <v>15.76652820107235</v>
       </c>
       <c r="I21">
-        <v>24.71109920934649</v>
+        <v>12.49041764584597</v>
       </c>
       <c r="J21">
-        <v>10.13888522420072</v>
+        <v>8.887791998055127</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>14.41528704601741</v>
+        <v>17.99941597349002</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.2125903412394</v>
+        <v>12.57888256325012</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.82585273440147</v>
+        <v>25.61142352931734</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.59846544594078</v>
+        <v>8.960256703224674</v>
       </c>
       <c r="E22">
-        <v>13.8495409963963</v>
+        <v>15.26981876144273</v>
       </c>
       <c r="F22">
-        <v>38.18338742115969</v>
+        <v>38.91167639786958</v>
       </c>
       <c r="G22">
-        <v>48.76199023275429</v>
+        <v>64.12607474216931</v>
       </c>
       <c r="H22">
-        <v>17.99468060784865</v>
+        <v>16.22637831776674</v>
       </c>
       <c r="I22">
-        <v>24.5981725712501</v>
+        <v>12.20805217912454</v>
       </c>
       <c r="J22">
-        <v>10.17983064178156</v>
+        <v>9.051651933812325</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>14.59654911712611</v>
+        <v>18.69077992566252</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.187642730242</v>
+        <v>12.51839490322352</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.67398808570496</v>
+        <v>25.1207358450898</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.562402887479378</v>
+        <v>8.830785727165164</v>
       </c>
       <c r="E23">
-        <v>13.78487048647307</v>
+        <v>15.06001023786464</v>
       </c>
       <c r="F23">
-        <v>38.09529318551416</v>
+        <v>38.2468252845443</v>
       </c>
       <c r="G23">
-        <v>48.46457803023125</v>
+        <v>62.82506303918623</v>
       </c>
       <c r="H23">
-        <v>17.97172131729909</v>
+        <v>15.98044009226751</v>
       </c>
       <c r="I23">
-        <v>24.65802422199751</v>
+        <v>12.3569672265484</v>
       </c>
       <c r="J23">
-        <v>10.15801344768603</v>
+        <v>8.964320632630308</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>14.49991472630289</v>
+        <v>18.32397257243282</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.20079454621153</v>
+        <v>12.55027215850673</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.09211660209206</v>
+        <v>23.19006876576483</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.423269309852808</v>
+        <v>8.334908042194501</v>
       </c>
       <c r="E24">
-        <v>13.53563404155485</v>
+        <v>14.25137410124493</v>
       </c>
       <c r="F24">
-        <v>37.78106336845888</v>
+        <v>35.73813513281228</v>
       </c>
       <c r="G24">
-        <v>47.35256343103647</v>
+        <v>57.90748882938735</v>
       </c>
       <c r="H24">
-        <v>17.89302466087817</v>
+        <v>15.05982790850308</v>
       </c>
       <c r="I24">
-        <v>24.89391766731789</v>
+        <v>12.95777443341956</v>
       </c>
       <c r="J24">
-        <v>10.07461003162863</v>
+        <v>8.630727937649663</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>14.13185313556205</v>
+        <v>16.88580155227366</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.25419437783622</v>
+        <v>12.67976531747517</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.45347235008077</v>
+        <v>21.00791560647898</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.267990314673861</v>
+        <v>7.786021612492501</v>
       </c>
       <c r="E25">
-        <v>13.25822301236109</v>
+        <v>13.34750670231282</v>
       </c>
       <c r="F25">
-        <v>37.48464384374919</v>
+        <v>33.05023848890468</v>
       </c>
       <c r="G25">
-        <v>46.19071824972472</v>
+        <v>52.51537556814421</v>
       </c>
       <c r="H25">
-        <v>17.825945696638</v>
+        <v>14.08894672896656</v>
       </c>
       <c r="I25">
-        <v>25.16806087693466</v>
+        <v>13.67105238751795</v>
       </c>
       <c r="J25">
-        <v>9.983117803613165</v>
+        <v>8.264325584848864</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>13.73244541059914</v>
+        <v>15.22460063505359</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.31949043918981</v>
+        <v>12.83720951238978</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_10/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.36031491451517</v>
+        <v>8.902420065620525</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.368335908790572</v>
+        <v>6.889996620557613</v>
       </c>
       <c r="E2">
-        <v>12.65410309363835</v>
+        <v>10.32831180406712</v>
       </c>
       <c r="F2">
-        <v>31.08900303241228</v>
+        <v>23.77074702721677</v>
       </c>
       <c r="G2">
-        <v>48.43329551316911</v>
+        <v>30.07910797277472</v>
       </c>
       <c r="H2">
-        <v>13.39341511105151</v>
+        <v>2.660550493709405</v>
       </c>
       <c r="I2">
-        <v>14.24226096596981</v>
+        <v>3.459657919755417</v>
       </c>
       <c r="J2">
-        <v>7.988717214912176</v>
+        <v>9.354794612231109</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>15.1110517760841</v>
       </c>
       <c r="L2">
-        <v>13.90199024285375</v>
+        <v>6.940231399880578</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.96756836068194</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>21.40938890390705</v>
+      </c>
+      <c r="P2">
+        <v>15.51360349861281</v>
+      </c>
+      <c r="Q2">
+        <v>16.82330567844496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.17315914604941</v>
+        <v>8.373528410674217</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.076474370936968</v>
+        <v>6.825794460652499</v>
       </c>
       <c r="E3">
-        <v>12.16704913779082</v>
+        <v>10.22347752487545</v>
       </c>
       <c r="F3">
-        <v>29.77453521375931</v>
+        <v>22.78520030724825</v>
       </c>
       <c r="G3">
-        <v>45.60087367894999</v>
+        <v>28.36178856323431</v>
       </c>
       <c r="H3">
-        <v>12.93493477750601</v>
+        <v>2.425427706670589</v>
       </c>
       <c r="I3">
-        <v>14.65445947124162</v>
+        <v>3.519683152083416</v>
       </c>
       <c r="J3">
-        <v>7.798402941019892</v>
+        <v>9.114915964611042</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>15.01908839980469</v>
       </c>
       <c r="L3">
-        <v>12.98518163113848</v>
+        <v>6.892050425351867</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.06454249693397</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>20.09928794479774</v>
+      </c>
+      <c r="P3">
+        <v>15.19966838838357</v>
+      </c>
+      <c r="Q3">
+        <v>16.13516195682351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.41008249534513</v>
+        <v>8.025853029925949</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.892931033027491</v>
+        <v>6.786562873514186</v>
       </c>
       <c r="E4">
-        <v>11.85981506725717</v>
+        <v>10.15750755112879</v>
       </c>
       <c r="F4">
-        <v>28.97649397371108</v>
+        <v>22.16818661628646</v>
       </c>
       <c r="G4">
-        <v>43.83222374255142</v>
+        <v>27.26717613854913</v>
       </c>
       <c r="H4">
-        <v>12.66021345789706</v>
+        <v>2.276040817594259</v>
       </c>
       <c r="I4">
-        <v>14.91902226008717</v>
+        <v>3.5585026624595</v>
       </c>
       <c r="J4">
-        <v>7.679890662490132</v>
+        <v>8.968390361938713</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.97109150189454</v>
       </c>
       <c r="L4">
-        <v>12.45697456059871</v>
+        <v>6.861298453325886</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.1282300620143</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>19.25175460760586</v>
+      </c>
+      <c r="P4">
+        <v>15.00809605116746</v>
+      </c>
+      <c r="Q4">
+        <v>15.70538826960329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.0906807095436</v>
+        <v>7.866208684059504</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.817056344909924</v>
+        <v>6.770113953093257</v>
       </c>
       <c r="E5">
-        <v>11.73261750671659</v>
+        <v>10.12914351739548</v>
       </c>
       <c r="F5">
-        <v>28.6538925746805</v>
+        <v>21.91228241613041</v>
       </c>
       <c r="G5">
-        <v>43.10471534148503</v>
+        <v>26.80932621354664</v>
       </c>
       <c r="H5">
-        <v>12.55004636128952</v>
+        <v>2.213910869638904</v>
       </c>
       <c r="I5">
-        <v>15.02960782992496</v>
+        <v>3.577563920087554</v>
       </c>
       <c r="J5">
-        <v>7.631196521235456</v>
+        <v>8.908522011800414</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.962080571053</v>
       </c>
       <c r="L5">
-        <v>12.23664982119665</v>
+        <v>6.848001112581806</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.1552102541409</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>18.90367045041596</v>
+      </c>
+      <c r="P5">
+        <v>14.93568577862218</v>
+      </c>
+      <c r="Q5">
+        <v>15.52769024753239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.03713972478594</v>
+        <v>7.824377096917523</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.804392764330719</v>
+        <v>6.766764702392444</v>
       </c>
       <c r="E6">
-        <v>11.7113779034648</v>
+        <v>10.12310423498606</v>
       </c>
       <c r="F6">
-        <v>28.60049282920063</v>
+        <v>21.86741765763523</v>
       </c>
       <c r="G6">
-        <v>42.98352718418009</v>
+        <v>26.73016716764256</v>
       </c>
       <c r="H6">
-        <v>12.53186332373915</v>
+        <v>2.203553042974043</v>
       </c>
       <c r="I6">
-        <v>15.04813518028353</v>
+        <v>3.58426870442537</v>
       </c>
       <c r="J6">
-        <v>7.623087356954731</v>
+        <v>8.898088522390456</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.97109019677347</v>
       </c>
       <c r="L6">
-        <v>12.19976294145237</v>
+        <v>6.845207141141</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.15975189901643</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>18.85505873440346</v>
+      </c>
+      <c r="P6">
+        <v>14.93015903149855</v>
+      </c>
+      <c r="Q6">
+        <v>15.49689742215167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.40580888026308</v>
+        <v>7.983720730829756</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.891912107494505</v>
+        <v>6.784658536887231</v>
       </c>
       <c r="E7">
-        <v>11.8581076314538</v>
+        <v>10.15359325812508</v>
       </c>
       <c r="F7">
-        <v>28.97213223299053</v>
+        <v>22.15877735193218</v>
       </c>
       <c r="G7">
-        <v>43.82243871100874</v>
+        <v>27.25420512475806</v>
       </c>
       <c r="H7">
-        <v>12.65872037559571</v>
+        <v>2.275312547499966</v>
       </c>
       <c r="I7">
-        <v>14.92050255474726</v>
+        <v>3.567991680338893</v>
       </c>
       <c r="J7">
-        <v>7.679235547589069</v>
+        <v>8.966204765184505</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.99945378990971</v>
       </c>
       <c r="L7">
-        <v>12.45402354211256</v>
+        <v>6.859585212874662</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.12858978734054</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>19.2733015409898</v>
+      </c>
+      <c r="P7">
+        <v>15.02480368761518</v>
+      </c>
+      <c r="Q7">
+        <v>15.69978013456658</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.95814661414389</v>
+        <v>8.675774276927651</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.26860648990196</v>
+        <v>6.86564925690578</v>
       </c>
       <c r="E8">
-        <v>12.48789548455143</v>
+        <v>10.28793777767708</v>
       </c>
       <c r="F8">
-        <v>30.63408114038465</v>
+        <v>23.42615029639982</v>
       </c>
       <c r="G8">
-        <v>47.46314096687951</v>
+        <v>29.4871849506089</v>
       </c>
       <c r="H8">
-        <v>13.23396628318617</v>
+        <v>2.580663283760572</v>
       </c>
       <c r="I8">
-        <v>14.38193301181588</v>
+        <v>3.4914350090001</v>
       </c>
       <c r="J8">
-        <v>7.923450436150197</v>
+        <v>9.270218117434597</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.1159800466654</v>
       </c>
       <c r="L8">
-        <v>13.57743406427067</v>
+        <v>6.921888023246643</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.00013512880346</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>20.99857824511057</v>
+      </c>
+      <c r="P8">
+        <v>15.42854764095435</v>
+      </c>
+      <c r="Q8">
+        <v>16.58366344822492</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.72713856454152</v>
+        <v>9.913466454596996</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.972944831698167</v>
+        <v>7.028978836060287</v>
       </c>
       <c r="E9">
-        <v>13.656301014995</v>
+        <v>10.54534363135257</v>
       </c>
       <c r="F9">
-        <v>33.95319561885818</v>
+        <v>25.81417509286575</v>
       </c>
       <c r="G9">
-        <v>54.34921514818149</v>
+        <v>33.54452768072629</v>
       </c>
       <c r="H9">
-        <v>14.41305457937835</v>
+        <v>3.140397925973092</v>
       </c>
       <c r="I9">
-        <v>13.42306167643873</v>
+        <v>3.341975134022521</v>
       </c>
       <c r="J9">
-        <v>8.388655093115476</v>
+        <v>9.871933987875614</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>15.36021401499073</v>
       </c>
       <c r="L9">
-        <v>15.79931989843391</v>
+        <v>7.03778031793765</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.7818786856283</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>23.99523465800749</v>
+      </c>
+      <c r="P9">
+        <v>16.19455577706066</v>
+      </c>
+      <c r="Q9">
+        <v>18.25557903093424</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.72638825206504</v>
+        <v>10.70119902231547</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.470507254691286</v>
+        <v>7.105862105610037</v>
       </c>
       <c r="E10">
-        <v>14.47327663190455</v>
+        <v>10.64391712984954</v>
       </c>
       <c r="F10">
-        <v>36.41758477045372</v>
+        <v>27.31990278632139</v>
       </c>
       <c r="G10">
-        <v>59.24198581724504</v>
+        <v>36.11962044685107</v>
       </c>
       <c r="H10">
-        <v>15.30792738509596</v>
+        <v>3.513624176463055</v>
       </c>
       <c r="I10">
-        <v>12.78899455971084</v>
+        <v>3.247120070753887</v>
       </c>
       <c r="J10">
-        <v>8.721769179674125</v>
+        <v>10.2724897120999</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>15.6157314401511</v>
       </c>
       <c r="L10">
-        <v>17.28455233116807</v>
+        <v>7.088943615544769</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.64317702329206</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>25.87703314700834</v>
+      </c>
+      <c r="P10">
+        <v>16.78518980059886</v>
+      </c>
+      <c r="Q10">
+        <v>19.34151113211486</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.5927361639098</v>
+        <v>11.05266160601478</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.693037258308001</v>
+        <v>6.78588353097658</v>
       </c>
       <c r="E11">
-        <v>14.83617665615044</v>
+        <v>10.12446263827255</v>
       </c>
       <c r="F11">
-        <v>37.54361347193329</v>
+        <v>26.54092038265959</v>
       </c>
       <c r="G11">
-        <v>61.4396158577953</v>
+        <v>35.62978848638853</v>
       </c>
       <c r="H11">
-        <v>15.72115926306652</v>
+        <v>4.085193502125106</v>
       </c>
       <c r="I11">
-        <v>12.51919362481106</v>
+        <v>3.227587975401099</v>
       </c>
       <c r="J11">
-        <v>8.871489440615575</v>
+        <v>10.10949949303963</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>15.9588341599376</v>
       </c>
       <c r="L11">
-        <v>17.92988579964878</v>
+        <v>6.953277036246827</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.58505999192885</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>25.51162754160788</v>
+      </c>
+      <c r="P11">
+        <v>17.25663399444649</v>
+      </c>
+      <c r="Q11">
+        <v>19.0404748781744</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.91460539489541</v>
+        <v>11.23997001078496</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.776816271999676</v>
+        <v>6.534486862802039</v>
       </c>
       <c r="E12">
-        <v>14.97238735141876</v>
+        <v>9.895766435084873</v>
       </c>
       <c r="F12">
-        <v>37.97078005305271</v>
+        <v>25.55505938926682</v>
       </c>
       <c r="G12">
-        <v>62.28239679127267</v>
+        <v>34.67471591242271</v>
       </c>
       <c r="H12">
-        <v>15.87855304405979</v>
+        <v>5.044540599288514</v>
       </c>
       <c r="I12">
-        <v>12.42007292118496</v>
+        <v>3.215329604815299</v>
       </c>
       <c r="J12">
-        <v>8.927938042822531</v>
+        <v>9.882259661705186</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>16.14870554076066</v>
       </c>
       <c r="L12">
-        <v>18.17004778400791</v>
+        <v>6.953502300710982</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.56379441070691</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>24.77516302810177</v>
+      </c>
+      <c r="P12">
+        <v>17.5065809770602</v>
+      </c>
+      <c r="Q12">
+        <v>18.55124277809876</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.84555857495621</v>
+        <v>11.2715195946199</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.758793536071446</v>
+        <v>6.321391493048691</v>
       </c>
       <c r="E13">
-        <v>14.94310484382371</v>
+        <v>9.881074671123027</v>
       </c>
       <c r="F13">
-        <v>37.8787462978264</v>
+        <v>24.31604071474873</v>
       </c>
       <c r="G13">
-        <v>62.10113390664483</v>
+        <v>33.26098130468038</v>
       </c>
       <c r="H13">
-        <v>15.8446141321697</v>
+        <v>6.159343770487446</v>
       </c>
       <c r="I13">
-        <v>12.44127812598498</v>
+        <v>3.221635766677912</v>
       </c>
       <c r="J13">
-        <v>8.91579150944345</v>
+        <v>9.585257957768491</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>16.27514847445835</v>
       </c>
       <c r="L13">
-        <v>18.11850943164397</v>
+        <v>7.051904868560954</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.56834089347118</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>23.71537703890068</v>
+      </c>
+      <c r="P13">
+        <v>17.6284778970288</v>
+      </c>
+      <c r="Q13">
+        <v>17.86908687617486</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.61933997649428</v>
+        <v>11.21468817220469</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.699939188062324</v>
+        <v>6.196985094457365</v>
       </c>
       <c r="E14">
-        <v>14.84740672770621</v>
+        <v>9.997812421187417</v>
       </c>
       <c r="F14">
-        <v>37.57874078856919</v>
+        <v>23.31892622726437</v>
       </c>
       <c r="G14">
-        <v>61.50906311802925</v>
+        <v>32.04115758630978</v>
       </c>
       <c r="H14">
-        <v>15.7340895948882</v>
+        <v>6.9999417269725</v>
       </c>
       <c r="I14">
-        <v>12.51097545388206</v>
+        <v>3.237227463032859</v>
       </c>
       <c r="J14">
-        <v>8.876138346027327</v>
+        <v>9.343318273327133</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>16.3445493901925</v>
       </c>
       <c r="L14">
-        <v>17.94972758936429</v>
+        <v>7.17702190037623</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.58329543093265</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>22.81791948705942</v>
+      </c>
+      <c r="P14">
+        <v>17.66163786319211</v>
+      </c>
+      <c r="Q14">
+        <v>17.2956170927348</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.47997141181063</v>
+        <v>11.15472837254541</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.663827690791454</v>
+        <v>6.170313383050313</v>
       </c>
       <c r="E15">
-        <v>14.78863284236834</v>
+        <v>10.03924788196531</v>
       </c>
       <c r="F15">
-        <v>37.39508134024032</v>
+        <v>23.0200332678484</v>
       </c>
       <c r="G15">
-        <v>61.14567656967107</v>
+        <v>31.64056076536077</v>
       </c>
       <c r="H15">
-        <v>15.66651024771141</v>
+        <v>7.191535313196264</v>
       </c>
       <c r="I15">
-        <v>12.55407612611175</v>
+        <v>3.249066640844921</v>
       </c>
       <c r="J15">
-        <v>8.851817999262156</v>
+        <v>9.269686936146112</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>16.36048611707831</v>
       </c>
       <c r="L15">
-        <v>17.84579993589831</v>
+        <v>7.211268823913357</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.59255296544315</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>22.53415780121843</v>
+      </c>
+      <c r="P15">
+        <v>17.64920671478549</v>
+      </c>
+      <c r="Q15">
+        <v>17.11362640250794</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.66889584286541</v>
+        <v>10.81058496708341</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.455892410615515</v>
+        <v>6.179106791636433</v>
       </c>
       <c r="E16">
-        <v>14.44938766849421</v>
+        <v>9.990097985584647</v>
       </c>
       <c r="F16">
-        <v>36.34409819513601</v>
+        <v>22.56133542682106</v>
       </c>
       <c r="G16">
-        <v>59.09813017547222</v>
+        <v>30.73791594072295</v>
       </c>
       <c r="H16">
-        <v>15.28104707801614</v>
+        <v>6.909191962684313</v>
       </c>
       <c r="I16">
-        <v>12.80703135631419</v>
+        <v>3.293670868807668</v>
       </c>
       <c r="J16">
-        <v>8.711949073041946</v>
+        <v>9.147186404497882</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>16.23465172011232</v>
       </c>
       <c r="L16">
-        <v>17.24178059278115</v>
+        <v>7.162045159593751</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.64707748519402</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>21.89103218765613</v>
+      </c>
+      <c r="P16">
+        <v>17.3847969201325</v>
+      </c>
+      <c r="Q16">
+        <v>16.75184270332189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.16014801523076</v>
+        <v>10.57030935227858</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.327391600206404</v>
+        <v>6.247802584871087</v>
       </c>
       <c r="E17">
-        <v>14.23905706599711</v>
+        <v>9.870006319962798</v>
       </c>
       <c r="F17">
-        <v>35.70063199283584</v>
+        <v>22.75921156462372</v>
       </c>
       <c r="G17">
-        <v>57.83353275809657</v>
+        <v>30.7202390297838</v>
       </c>
       <c r="H17">
-        <v>15.04616257406088</v>
+        <v>6.195799589731407</v>
       </c>
       <c r="I17">
-        <v>12.96722236459362</v>
+        <v>3.320266541330382</v>
       </c>
       <c r="J17">
-        <v>8.625686344902366</v>
+        <v>9.185494747467414</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>16.10362994574435</v>
       </c>
       <c r="L17">
-        <v>16.86357157590116</v>
+        <v>7.048402741701041</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.68181971490799</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>21.89117937933098</v>
+      </c>
+      <c r="P17">
+        <v>17.16369197133866</v>
+      </c>
+      <c r="Q17">
+        <v>16.79019824608744</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.86338156821173</v>
+        <v>10.42590971022249</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.253117793187167</v>
+        <v>6.398457728030192</v>
       </c>
       <c r="E18">
-        <v>14.11725308202606</v>
+        <v>9.793088144549126</v>
       </c>
       <c r="F18">
-        <v>35.33098604864187</v>
+        <v>23.54485112483608</v>
       </c>
       <c r="G18">
-        <v>57.10285275999416</v>
+        <v>31.47235329588358</v>
       </c>
       <c r="H18">
-        <v>14.91163856729318</v>
+        <v>5.097244875359857</v>
       </c>
       <c r="I18">
-        <v>13.06108823493321</v>
+        <v>3.324726208625925</v>
       </c>
       <c r="J18">
-        <v>8.575898159491938</v>
+        <v>9.364892475301508</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>15.92552766927365</v>
       </c>
       <c r="L18">
-        <v>16.64317361738433</v>
+        <v>6.922837265648833</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.70226949721454</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>22.44075457359673</v>
+      </c>
+      <c r="P18">
+        <v>16.94077027531776</v>
+      </c>
+      <c r="Q18">
+        <v>17.17724202490361</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.76218548434688</v>
+        <v>10.31289466960679</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.227905961007618</v>
+        <v>6.63237113015959</v>
       </c>
       <c r="E19">
-        <v>14.07586921694017</v>
+        <v>9.931379579092141</v>
       </c>
       <c r="F19">
-        <v>35.20590908562903</v>
+        <v>24.71867239584088</v>
       </c>
       <c r="G19">
-        <v>56.85488092662344</v>
+        <v>32.75764527527517</v>
       </c>
       <c r="H19">
-        <v>14.86618954811641</v>
+        <v>3.984487174798476</v>
       </c>
       <c r="I19">
-        <v>13.09315649468525</v>
+        <v>3.329297127112245</v>
       </c>
       <c r="J19">
-        <v>8.559010884760756</v>
+        <v>9.63805912798299</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>15.78466040245859</v>
       </c>
       <c r="L19">
-        <v>16.56805486512812</v>
+        <v>6.884035378737359</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.70927288167839</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>23.42019294498183</v>
+      </c>
+      <c r="P19">
+        <v>16.76896360580938</v>
+      </c>
+      <c r="Q19">
+        <v>17.80073310513188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.21473353853452</v>
+        <v>10.40532749528197</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.341107973959067</v>
+        <v>7.078858995066632</v>
       </c>
       <c r="E20">
-        <v>14.26153248941181</v>
+        <v>10.60466918598183</v>
       </c>
       <c r="F20">
-        <v>35.7690825220042</v>
+        <v>26.90685682390506</v>
       </c>
       <c r="G20">
-        <v>57.96849295841948</v>
+        <v>35.43205472435114</v>
       </c>
       <c r="H20">
-        <v>15.07110678741056</v>
+        <v>3.415754619906981</v>
       </c>
       <c r="I20">
-        <v>12.94998848080612</v>
+        <v>3.299935589998918</v>
       </c>
       <c r="J20">
-        <v>8.634886902872502</v>
+        <v>10.16200609962387</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>15.64018755495847</v>
       </c>
       <c r="L20">
-        <v>16.90412777967892</v>
+        <v>7.070184652008153</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.67807283277761</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>25.44067262005133</v>
+      </c>
+      <c r="P20">
+        <v>16.68530501471486</v>
+      </c>
+      <c r="Q20">
+        <v>19.04747888872121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.68595298911391</v>
+        <v>10.98848970586493</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.717238823446804</v>
+        <v>7.206771485496143</v>
       </c>
       <c r="E21">
-        <v>14.87554798408578</v>
+        <v>10.80853367998979</v>
       </c>
       <c r="F21">
-        <v>37.66683807566034</v>
+        <v>28.2972252414787</v>
       </c>
       <c r="G21">
-        <v>61.68311909747818</v>
+        <v>37.63399115806364</v>
       </c>
       <c r="H21">
-        <v>15.76652820107235</v>
+        <v>3.721071849888106</v>
       </c>
       <c r="I21">
-        <v>12.49041764584597</v>
+        <v>3.222822219126904</v>
       </c>
       <c r="J21">
-        <v>8.887791998055127</v>
+        <v>10.53004958930057</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15.80056936109816</v>
       </c>
       <c r="L21">
-        <v>17.99941597349002</v>
+        <v>7.153088448685718</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.57888256325012</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>27.04589678891873</v>
+      </c>
+      <c r="P21">
+        <v>17.09343202468834</v>
+      </c>
+      <c r="Q21">
+        <v>20.00482884394009</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.61142352931734</v>
+        <v>11.38923819593803</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.960256703224674</v>
+        <v>7.270334079155568</v>
       </c>
       <c r="E22">
-        <v>15.26981876144273</v>
+        <v>10.90278245297208</v>
       </c>
       <c r="F22">
-        <v>38.91167639786958</v>
+        <v>29.1083412718726</v>
       </c>
       <c r="G22">
-        <v>64.12607474216931</v>
+        <v>38.94115456160856</v>
       </c>
       <c r="H22">
-        <v>16.22637831776674</v>
+        <v>3.90806071546662</v>
       </c>
       <c r="I22">
-        <v>12.20805217912454</v>
+        <v>3.162967903795471</v>
       </c>
       <c r="J22">
-        <v>9.051651933812325</v>
+        <v>10.75066639012057</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.88425116255955</v>
       </c>
       <c r="L22">
-        <v>18.69077992566252</v>
+        <v>7.193760836849829</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.51839490322352</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>27.95795424234846</v>
+      </c>
+      <c r="P22">
+        <v>17.34740520313348</v>
+      </c>
+      <c r="Q22">
+        <v>20.57579378433457</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.1207358450898</v>
+        <v>11.21171213515303</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.830785727165164</v>
+        <v>7.2381544373429</v>
       </c>
       <c r="E23">
-        <v>15.06001023786464</v>
+        <v>10.85628003515553</v>
       </c>
       <c r="F23">
-        <v>38.2468252845443</v>
+        <v>28.68239887674359</v>
       </c>
       <c r="G23">
-        <v>62.82506303918623</v>
+        <v>38.25296286566095</v>
       </c>
       <c r="H23">
-        <v>15.98044009226751</v>
+        <v>3.808402011801607</v>
       </c>
       <c r="I23">
-        <v>12.3569672265484</v>
+        <v>3.183837407222017</v>
       </c>
       <c r="J23">
-        <v>8.964320632630308</v>
+        <v>10.63436093877029</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>15.80350617868982</v>
       </c>
       <c r="L23">
-        <v>18.32397257243282</v>
+        <v>7.17371750526699</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.55027215850673</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>27.45386947065682</v>
+      </c>
+      <c r="P23">
+        <v>17.19194755895723</v>
+      </c>
+      <c r="Q23">
+        <v>20.27499907928615</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.19006876576483</v>
+        <v>10.44579958062043</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.334908042194501</v>
+        <v>7.114120233446503</v>
       </c>
       <c r="E24">
-        <v>14.25137410124493</v>
+        <v>10.67266588134049</v>
       </c>
       <c r="F24">
-        <v>35.73813513281228</v>
+        <v>27.02628315504326</v>
       </c>
       <c r="G24">
-        <v>57.90748882938735</v>
+        <v>35.5555803696118</v>
       </c>
       <c r="H24">
-        <v>15.05982790850308</v>
+        <v>3.424094626945097</v>
       </c>
       <c r="I24">
-        <v>12.95777443341956</v>
+        <v>3.283213334075988</v>
       </c>
       <c r="J24">
-        <v>8.630727937649663</v>
+        <v>10.18957693378171</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>15.56810836533603</v>
       </c>
       <c r="L24">
-        <v>16.88580155227366</v>
+        <v>7.09392303180479</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.67976531747517</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>25.49412056619591</v>
+      </c>
+      <c r="P24">
+        <v>16.63121084591692</v>
+      </c>
+      <c r="Q24">
+        <v>19.10870171531508</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.00791560647898</v>
+        <v>9.537755398999671</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.786021612492501</v>
+        <v>6.98174159045803</v>
       </c>
       <c r="E25">
-        <v>13.34750670231282</v>
+        <v>10.47091760475397</v>
       </c>
       <c r="F25">
-        <v>33.05023848890468</v>
+        <v>25.17190352239161</v>
       </c>
       <c r="G25">
-        <v>52.51537556814421</v>
+        <v>32.47386676947516</v>
       </c>
       <c r="H25">
-        <v>14.08894672896656</v>
+        <v>2.99322465521513</v>
       </c>
       <c r="I25">
-        <v>13.67105238751795</v>
+        <v>3.396709679962092</v>
       </c>
       <c r="J25">
-        <v>8.264325584848864</v>
+        <v>9.706938258178726</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>15.34036512412503</v>
       </c>
       <c r="L25">
-        <v>15.22460063505359</v>
+        <v>7.004743104873362</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.83720951238978</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>23.26097361813371</v>
+      </c>
+      <c r="P25">
+        <v>16.01885321311637</v>
+      </c>
+      <c r="Q25">
+        <v>17.80654411523694</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_10/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.902420065620525</v>
+        <v>9.773981129860037</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.889996620557613</v>
+        <v>6.828908369660616</v>
       </c>
       <c r="E2">
-        <v>10.32831180406712</v>
+        <v>10.27358855661861</v>
       </c>
       <c r="F2">
-        <v>23.77074702721677</v>
+        <v>24.00037497043589</v>
       </c>
       <c r="G2">
-        <v>30.07910797277472</v>
+        <v>29.93032324698889</v>
       </c>
       <c r="H2">
-        <v>2.660550493709405</v>
+        <v>2.608636505100144</v>
       </c>
       <c r="I2">
-        <v>3.459657919755417</v>
+        <v>3.179718485552357</v>
       </c>
       <c r="J2">
-        <v>9.354794612231109</v>
+        <v>10.1124047023018</v>
       </c>
       <c r="K2">
-        <v>15.1110517760841</v>
+        <v>13.93693413679148</v>
       </c>
       <c r="L2">
-        <v>6.940231399880578</v>
+        <v>10.79846678707885</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.827631773058032</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.917572447592028</v>
       </c>
       <c r="O2">
-        <v>21.40938890390705</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>15.51360349861281</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>16.82330567844496</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>20.84818680650658</v>
+      </c>
+      <c r="R2">
+        <v>14.94548505198063</v>
+      </c>
+      <c r="S2">
+        <v>16.99292706733172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.373528410674217</v>
+        <v>9.212428052758737</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.825794460652499</v>
+        <v>6.766631395458177</v>
       </c>
       <c r="E3">
-        <v>10.22347752487545</v>
+        <v>10.16981136499748</v>
       </c>
       <c r="F3">
-        <v>22.78520030724825</v>
+        <v>23.01554049290697</v>
       </c>
       <c r="G3">
-        <v>28.36178856323431</v>
+        <v>28.17291538857057</v>
       </c>
       <c r="H3">
-        <v>2.425427706670589</v>
+        <v>2.378485767109415</v>
       </c>
       <c r="I3">
-        <v>3.519683152083416</v>
+        <v>3.229413967541467</v>
       </c>
       <c r="J3">
-        <v>9.114915964611042</v>
+        <v>9.865348884471821</v>
       </c>
       <c r="K3">
-        <v>15.01908839980469</v>
+        <v>13.87676694376924</v>
       </c>
       <c r="L3">
-        <v>6.892050425351867</v>
+        <v>10.65236397623679</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.930359266280202</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.869724817337808</v>
       </c>
       <c r="O3">
-        <v>20.09928794479774</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>15.19966838838357</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>16.13516195682351</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>19.54963576439765</v>
+      </c>
+      <c r="R3">
+        <v>14.65201293966138</v>
+      </c>
+      <c r="S3">
+        <v>16.30725273135025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.025853029925949</v>
+        <v>8.841893608648652</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.786562873514186</v>
+        <v>6.728644417075015</v>
       </c>
       <c r="E4">
-        <v>10.15750755112879</v>
+        <v>10.10446863333821</v>
       </c>
       <c r="F4">
-        <v>22.16818661628646</v>
+        <v>22.39824843623949</v>
       </c>
       <c r="G4">
-        <v>27.26717613854913</v>
+        <v>27.05273124998365</v>
       </c>
       <c r="H4">
-        <v>2.276040817594259</v>
+        <v>2.232224839806884</v>
       </c>
       <c r="I4">
-        <v>3.5585026624595</v>
+        <v>3.26189928564475</v>
       </c>
       <c r="J4">
-        <v>8.968390361938713</v>
+        <v>9.712248533168557</v>
       </c>
       <c r="K4">
-        <v>14.97109150189454</v>
+        <v>13.84902277834186</v>
       </c>
       <c r="L4">
-        <v>6.861298453325886</v>
+        <v>10.58570543396526</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.998994002869011</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.839166684470207</v>
       </c>
       <c r="O4">
-        <v>19.25175460760586</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>15.00809605116746</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>15.70538826960329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>18.70978983299013</v>
+      </c>
+      <c r="R4">
+        <v>14.47404732776556</v>
+      </c>
+      <c r="S4">
+        <v>15.87848384148196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.866208684059504</v>
+        <v>8.673448630705701</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.770113953093257</v>
+        <v>6.712760824791475</v>
       </c>
       <c r="E5">
-        <v>10.12914351739548</v>
+        <v>10.07642828317339</v>
       </c>
       <c r="F5">
-        <v>21.91228241613041</v>
+        <v>22.14222673790793</v>
       </c>
       <c r="G5">
-        <v>26.80932621354664</v>
+        <v>26.58440347759052</v>
       </c>
       <c r="H5">
-        <v>2.213910869638904</v>
+        <v>2.171379874381642</v>
       </c>
       <c r="I5">
-        <v>3.577563920087554</v>
+        <v>3.278892965514904</v>
       </c>
       <c r="J5">
-        <v>8.908522011800414</v>
+        <v>9.649213222702294</v>
       </c>
       <c r="K5">
-        <v>14.962080571053</v>
+        <v>13.84608978088507</v>
       </c>
       <c r="L5">
-        <v>6.848001112581806</v>
+        <v>10.56633204732691</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.03551151997449</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.825976579798672</v>
       </c>
       <c r="O5">
-        <v>18.90367045041596</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>14.93568577862218</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>15.52769024753239</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>18.36420458574362</v>
+      </c>
+      <c r="R5">
+        <v>14.40660763444844</v>
+      </c>
+      <c r="S5">
+        <v>15.70116159142258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.824377096917523</v>
+        <v>8.631682773427993</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.766764702392444</v>
+        <v>6.709558248446677</v>
       </c>
       <c r="E6">
-        <v>10.12310423498606</v>
+        <v>10.07053172582446</v>
       </c>
       <c r="F6">
-        <v>21.86741765763523</v>
+        <v>22.09755538113275</v>
       </c>
       <c r="G6">
-        <v>26.73016716764256</v>
+        <v>26.50372407496893</v>
       </c>
       <c r="H6">
-        <v>2.203553042974043</v>
+        <v>2.161226497636855</v>
       </c>
       <c r="I6">
-        <v>3.58426870442537</v>
+        <v>3.285930452858081</v>
       </c>
       <c r="J6">
-        <v>8.898088522390456</v>
+        <v>9.638291975953242</v>
       </c>
       <c r="K6">
-        <v>14.97109019677347</v>
+        <v>13.85323803942405</v>
       </c>
       <c r="L6">
-        <v>6.845207141141</v>
+        <v>10.56585045379042</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.0504359874092</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.823237780410723</v>
       </c>
       <c r="O6">
-        <v>18.85505873440346</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>14.93015903149855</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>15.49689742215167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>18.31503643291258</v>
+      </c>
+      <c r="R6">
+        <v>14.40089292600329</v>
+      </c>
+      <c r="S6">
+        <v>15.67054559670466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.983720730829756</v>
+        <v>8.804551754134401</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.784658536887231</v>
+        <v>6.729288690564155</v>
       </c>
       <c r="E7">
-        <v>10.15359325812508</v>
+        <v>10.10182832995316</v>
       </c>
       <c r="F7">
-        <v>22.15877735193218</v>
+        <v>22.37117269234283</v>
       </c>
       <c r="G7">
-        <v>27.25420512475806</v>
+        <v>27.14400866024027</v>
       </c>
       <c r="H7">
-        <v>2.275312547499966</v>
+        <v>2.230721482773239</v>
       </c>
       <c r="I7">
-        <v>3.567991680338893</v>
+        <v>3.273157036272343</v>
       </c>
       <c r="J7">
-        <v>8.966204765184505</v>
+        <v>9.651564959217202</v>
       </c>
       <c r="K7">
-        <v>14.99945378990971</v>
+        <v>13.87029433311135</v>
       </c>
       <c r="L7">
-        <v>6.859585212874662</v>
+        <v>10.59319051622608</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.02359291282979</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.837399054258094</v>
       </c>
       <c r="O7">
-        <v>19.2733015409898</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>15.02480368761518</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>15.69978013456658</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>18.7201864077906</v>
+      </c>
+      <c r="R7">
+        <v>14.48884555532252</v>
+      </c>
+      <c r="S7">
+        <v>15.85670380294018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.675774276927651</v>
+        <v>9.543981450212979</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.86564925690578</v>
+        <v>6.813391263848009</v>
       </c>
       <c r="E8">
-        <v>10.28793777767708</v>
+        <v>10.23743693978312</v>
       </c>
       <c r="F8">
-        <v>23.42615029639982</v>
+        <v>23.59906343425397</v>
       </c>
       <c r="G8">
-        <v>29.4871849506089</v>
+        <v>29.64603744889138</v>
       </c>
       <c r="H8">
-        <v>2.580663283760572</v>
+        <v>2.528028551174554</v>
       </c>
       <c r="I8">
-        <v>3.4914350090001</v>
+        <v>3.210254685869577</v>
       </c>
       <c r="J8">
-        <v>9.270218117434597</v>
+        <v>9.83698595658641</v>
       </c>
       <c r="K8">
-        <v>15.1159800466654</v>
+        <v>13.94507177911649</v>
       </c>
       <c r="L8">
-        <v>6.921888023246643</v>
+        <v>10.75882325438525</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.893168200860321</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.899040492090205</v>
       </c>
       <c r="O8">
-        <v>20.99857824511057</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>15.42854764095435</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>16.58366344822492</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>20.41171210696323</v>
+      </c>
+      <c r="R8">
+        <v>14.8664636089682</v>
+      </c>
+      <c r="S8">
+        <v>16.70230414668357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.913466454596996</v>
+        <v>10.84512487063129</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.028978836060287</v>
+        <v>6.974225479678878</v>
       </c>
       <c r="E9">
-        <v>10.54534363135257</v>
+        <v>10.49288720986444</v>
       </c>
       <c r="F9">
-        <v>25.81417509286575</v>
+        <v>25.9709600596404</v>
       </c>
       <c r="G9">
-        <v>33.54452768072629</v>
+        <v>33.83959504046528</v>
       </c>
       <c r="H9">
-        <v>3.140397925973092</v>
+        <v>3.075338991468391</v>
       </c>
       <c r="I9">
-        <v>3.341975134022521</v>
+        <v>3.084721766945981</v>
       </c>
       <c r="J9">
-        <v>9.871933987875614</v>
+        <v>10.40366887911004</v>
       </c>
       <c r="K9">
-        <v>15.36021401499073</v>
+        <v>14.12380250215933</v>
       </c>
       <c r="L9">
-        <v>7.03778031793765</v>
+        <v>11.23691607365206</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>9.641108363975864</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.013917933984784</v>
       </c>
       <c r="O9">
-        <v>23.99523465800749</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>16.19455577706066</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>18.25557903093424</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>23.3818164324412</v>
+      </c>
+      <c r="R9">
+        <v>15.59089045745816</v>
+      </c>
+      <c r="S9">
+        <v>18.35593129770569</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.70119902231547</v>
+        <v>11.67807713685655</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.105862105610037</v>
+        <v>7.062368800335123</v>
       </c>
       <c r="E10">
-        <v>10.64391712984954</v>
+        <v>10.59240342978287</v>
       </c>
       <c r="F10">
-        <v>27.31990278632139</v>
+        <v>27.37511114931108</v>
       </c>
       <c r="G10">
-        <v>36.11962044685107</v>
+        <v>36.97431900761479</v>
       </c>
       <c r="H10">
-        <v>3.513624176463055</v>
+        <v>3.436373489571121</v>
       </c>
       <c r="I10">
-        <v>3.247120070753887</v>
+        <v>3.008634773181866</v>
       </c>
       <c r="J10">
-        <v>10.2724897120999</v>
+        <v>10.46785196606667</v>
       </c>
       <c r="K10">
-        <v>15.6157314401511</v>
+        <v>14.33040282552997</v>
       </c>
       <c r="L10">
-        <v>7.088943615544769</v>
+        <v>11.70482038340614</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>9.508183652883112</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.061925663388149</v>
       </c>
       <c r="O10">
-        <v>25.87703314700834</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>16.78518980059886</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>19.34151113211486</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>25.17832299548061</v>
+      </c>
+      <c r="R10">
+        <v>16.15635360794621</v>
+      </c>
+      <c r="S10">
+        <v>19.34719499743839</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.05266160601478</v>
+        <v>12.08924471901959</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.78588353097658</v>
+        <v>6.755630005291134</v>
       </c>
       <c r="E11">
-        <v>10.12446263827255</v>
+        <v>10.03775710801595</v>
       </c>
       <c r="F11">
-        <v>26.54092038265959</v>
+        <v>26.41104430807313</v>
       </c>
       <c r="G11">
-        <v>35.62978848638853</v>
+        <v>37.52220525437363</v>
       </c>
       <c r="H11">
-        <v>4.085193502125106</v>
+        <v>4.010318331360924</v>
       </c>
       <c r="I11">
-        <v>3.227587975401099</v>
+        <v>2.999931858946677</v>
       </c>
       <c r="J11">
-        <v>10.10949949303963</v>
+        <v>9.667930135434911</v>
       </c>
       <c r="K11">
-        <v>15.9588341599376</v>
+        <v>14.60540195646738</v>
       </c>
       <c r="L11">
-        <v>6.953277036246827</v>
+        <v>12.06186617368246</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>9.5896808742727</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.905381483549953</v>
       </c>
       <c r="O11">
-        <v>25.51162754160788</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>17.25663399444649</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>19.0404748781744</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>24.68077485158485</v>
+      </c>
+      <c r="R11">
+        <v>16.59969850173794</v>
+      </c>
+      <c r="S11">
+        <v>18.87341057261423</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.23997001078496</v>
+        <v>12.31069657775822</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.534486862802039</v>
+        <v>6.498554295767913</v>
       </c>
       <c r="E12">
-        <v>9.895766435084873</v>
+        <v>9.764119258761905</v>
       </c>
       <c r="F12">
-        <v>25.55505938926682</v>
+        <v>25.34388138874851</v>
       </c>
       <c r="G12">
-        <v>34.67471591242271</v>
+        <v>37.04955307955097</v>
       </c>
       <c r="H12">
-        <v>5.044540599288514</v>
+        <v>4.982253012519633</v>
       </c>
       <c r="I12">
-        <v>3.215329604815299</v>
+        <v>2.989660898709987</v>
       </c>
       <c r="J12">
-        <v>9.882259661705186</v>
+        <v>9.169171133224657</v>
       </c>
       <c r="K12">
-        <v>16.14870554076066</v>
+        <v>14.75382299495711</v>
       </c>
       <c r="L12">
-        <v>6.953502300710982</v>
+        <v>12.23271102408637</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>9.653614461429727</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.886826003499598</v>
       </c>
       <c r="O12">
-        <v>24.77516302810177</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>17.5065809770602</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>18.55124277809876</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>23.89210709629076</v>
+      </c>
+      <c r="R12">
+        <v>16.83126819212534</v>
+      </c>
+      <c r="S12">
+        <v>18.30669219127647</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.2715195946199</v>
+        <v>12.36428320440212</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.321391493048691</v>
+        <v>6.264504643362129</v>
       </c>
       <c r="E13">
-        <v>9.881074671123027</v>
+        <v>9.704487873616054</v>
       </c>
       <c r="F13">
-        <v>24.31604071474873</v>
+        <v>24.13644295686898</v>
       </c>
       <c r="G13">
-        <v>33.26098130468038</v>
+        <v>35.52974350699422</v>
       </c>
       <c r="H13">
-        <v>6.159343770487446</v>
+        <v>6.110683325917061</v>
       </c>
       <c r="I13">
-        <v>3.221635766677912</v>
+        <v>2.994138431243328</v>
       </c>
       <c r="J13">
-        <v>9.585257957768491</v>
+        <v>8.975399863934049</v>
       </c>
       <c r="K13">
-        <v>16.27514847445835</v>
+        <v>14.84465960395594</v>
       </c>
       <c r="L13">
-        <v>7.051904868560954</v>
+        <v>12.2867886541362</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>9.737165555720312</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.96936658497576</v>
       </c>
       <c r="O13">
-        <v>23.71537703890068</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>17.6284778970288</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>17.86908687617486</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>22.8294922016696</v>
+      </c>
+      <c r="R13">
+        <v>16.93473108789161</v>
+      </c>
+      <c r="S13">
+        <v>17.65011206919665</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.21468817220469</v>
+        <v>12.3187247109816</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.196985094457365</v>
+        <v>6.121952805201448</v>
       </c>
       <c r="E14">
-        <v>9.997812421187417</v>
+        <v>9.796021891546882</v>
       </c>
       <c r="F14">
-        <v>23.31892622726437</v>
+        <v>23.21098706221236</v>
       </c>
       <c r="G14">
-        <v>32.04115758630978</v>
+        <v>33.97501902712754</v>
       </c>
       <c r="H14">
-        <v>6.9999417269725</v>
+        <v>6.959875366080031</v>
       </c>
       <c r="I14">
-        <v>3.237227463032859</v>
+        <v>3.007346581993806</v>
       </c>
       <c r="J14">
-        <v>9.343318273327133</v>
+        <v>8.964727517780746</v>
       </c>
       <c r="K14">
-        <v>16.3445493901925</v>
+        <v>14.88964210043346</v>
       </c>
       <c r="L14">
-        <v>7.17702190037623</v>
+        <v>12.27646767266969</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>9.811450105087708</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>7.08557633362835</v>
       </c>
       <c r="O14">
-        <v>22.81791948705942</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>17.66163786319211</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>17.2956170927348</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>21.95102064966883</v>
+      </c>
+      <c r="R14">
+        <v>16.95410427198006</v>
+      </c>
+      <c r="S14">
+        <v>17.1398776506243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.15472837254541</v>
+        <v>12.26048157346841</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.170313383050313</v>
+        <v>6.09002351836878</v>
       </c>
       <c r="E15">
-        <v>10.03924788196531</v>
+        <v>9.834103078295694</v>
       </c>
       <c r="F15">
-        <v>23.0200332678484</v>
+        <v>22.95078707763851</v>
       </c>
       <c r="G15">
-        <v>31.64056076536077</v>
+        <v>33.38026253281279</v>
       </c>
       <c r="H15">
-        <v>7.191535313196264</v>
+        <v>7.153841191624732</v>
       </c>
       <c r="I15">
-        <v>3.249066640844921</v>
+        <v>3.01865712402749</v>
       </c>
       <c r="J15">
-        <v>9.269686936146112</v>
+        <v>9.015222336641836</v>
       </c>
       <c r="K15">
-        <v>16.36048611707831</v>
+        <v>14.89862319228555</v>
       </c>
       <c r="L15">
-        <v>7.211268823913357</v>
+        <v>12.25624383829757</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>9.842491294355867</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>7.118553032705749</v>
       </c>
       <c r="O15">
-        <v>22.53415780121843</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>17.64920671478549</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>17.11362640250794</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>21.68043505037169</v>
+      </c>
+      <c r="R15">
+        <v>16.93753790773976</v>
+      </c>
+      <c r="S15">
+        <v>16.99274898027977</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.81058496708341</v>
+        <v>11.89436365301248</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.179106791636433</v>
+        <v>6.090822471980246</v>
       </c>
       <c r="E16">
-        <v>9.990097985584647</v>
+        <v>9.804204957432658</v>
       </c>
       <c r="F16">
-        <v>22.56133542682106</v>
+        <v>22.66586340428856</v>
       </c>
       <c r="G16">
-        <v>30.73791594072295</v>
+        <v>31.53810086198096</v>
       </c>
       <c r="H16">
-        <v>6.909191962684313</v>
+        <v>6.876277223692511</v>
       </c>
       <c r="I16">
-        <v>3.293670868807668</v>
+        <v>3.05658304634146</v>
       </c>
       <c r="J16">
-        <v>9.147186404497882</v>
+        <v>9.458893221261928</v>
       </c>
       <c r="K16">
-        <v>16.23465172011232</v>
+        <v>14.78722369723642</v>
       </c>
       <c r="L16">
-        <v>7.162045159593751</v>
+        <v>12.02236135685048</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>9.89060528810222</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>7.076800021649217</v>
       </c>
       <c r="O16">
-        <v>21.89103218765613</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>17.3847969201325</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>16.75184270332189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>21.11468251458077</v>
+      </c>
+      <c r="R16">
+        <v>16.67634267902451</v>
+      </c>
+      <c r="S16">
+        <v>16.79103127119944</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.57030935227858</v>
+        <v>11.63125857672867</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.247802584871087</v>
+        <v>6.16096102150104</v>
       </c>
       <c r="E17">
-        <v>9.870006319962798</v>
+        <v>9.705660691738984</v>
       </c>
       <c r="F17">
-        <v>22.75921156462372</v>
+        <v>22.93546748487683</v>
       </c>
       <c r="G17">
-        <v>30.7202390297838</v>
+        <v>31.1028463639538</v>
       </c>
       <c r="H17">
-        <v>6.195799589731407</v>
+        <v>6.162349054985536</v>
       </c>
       <c r="I17">
-        <v>3.320266541330382</v>
+        <v>3.079463282126621</v>
       </c>
       <c r="J17">
-        <v>9.185494747467414</v>
+        <v>9.737510898209948</v>
       </c>
       <c r="K17">
-        <v>16.10362994574435</v>
+        <v>14.68216276695294</v>
       </c>
       <c r="L17">
-        <v>7.048402741701041</v>
+        <v>11.85492796358009</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>9.889549151950588</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.972562913435365</v>
       </c>
       <c r="O17">
-        <v>21.89117937933098</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>17.16369197133866</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>16.79019824608744</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>21.15467056510105</v>
+      </c>
+      <c r="R17">
+        <v>16.46692424658312</v>
+      </c>
+      <c r="S17">
+        <v>16.89692227909262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.42590971022249</v>
+        <v>11.4567958542194</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.398457728030192</v>
+        <v>6.317438407765311</v>
       </c>
       <c r="E18">
-        <v>9.793088144549126</v>
+        <v>9.657139813250581</v>
       </c>
       <c r="F18">
-        <v>23.54485112483608</v>
+        <v>23.74589712420596</v>
       </c>
       <c r="G18">
-        <v>31.47235329588358</v>
+        <v>31.67360962086577</v>
       </c>
       <c r="H18">
-        <v>5.097244875359857</v>
+        <v>5.057781638105077</v>
       </c>
       <c r="I18">
-        <v>3.324726208625925</v>
+        <v>3.080320973382205</v>
       </c>
       <c r="J18">
-        <v>9.364892475301508</v>
+        <v>10.01031249348936</v>
       </c>
       <c r="K18">
-        <v>15.92552766927365</v>
+        <v>14.54618713010137</v>
       </c>
       <c r="L18">
-        <v>6.922837265648833</v>
+        <v>11.70704168815112</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>9.825362388274735</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.86028922935078</v>
       </c>
       <c r="O18">
-        <v>22.44075457359673</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>16.94077027531776</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>17.17724202490361</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>21.74274244828263</v>
+      </c>
+      <c r="R18">
+        <v>16.26414747180181</v>
+      </c>
+      <c r="S18">
+        <v>17.30932850000266</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.31289466960679</v>
+        <v>11.31660867475519</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.63237113015959</v>
+        <v>6.559459913940343</v>
       </c>
       <c r="E19">
-        <v>9.931379579092141</v>
+        <v>9.828731252442779</v>
       </c>
       <c r="F19">
-        <v>24.71867239584088</v>
+        <v>24.92001566727244</v>
       </c>
       <c r="G19">
-        <v>32.75764527527517</v>
+        <v>32.90906666085231</v>
       </c>
       <c r="H19">
-        <v>3.984487174798476</v>
+        <v>3.93253052752698</v>
       </c>
       <c r="I19">
-        <v>3.329297127112245</v>
+        <v>3.085831919679806</v>
       </c>
       <c r="J19">
-        <v>9.63805912798299</v>
+        <v>10.29860157096023</v>
       </c>
       <c r="K19">
-        <v>15.78466040245859</v>
+        <v>14.44395073871417</v>
       </c>
       <c r="L19">
-        <v>6.884035378737359</v>
+        <v>11.61834306168248</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>9.75612163216633</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.837261956493615</v>
       </c>
       <c r="O19">
-        <v>23.42019294498183</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>16.76896360580938</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>17.80073310513188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>22.76913982142766</v>
+      </c>
+      <c r="R19">
+        <v>16.11205427776448</v>
+      </c>
+      <c r="S19">
+        <v>17.93578683072271</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.40532749528197</v>
+        <v>11.38016893403852</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.078858995066632</v>
+        <v>7.024190311367179</v>
       </c>
       <c r="E20">
-        <v>10.60466918598183</v>
+        <v>10.54953001631545</v>
       </c>
       <c r="F20">
-        <v>26.90685682390506</v>
+        <v>27.04505903107919</v>
       </c>
       <c r="G20">
-        <v>35.43205472435114</v>
+        <v>35.85566638042096</v>
       </c>
       <c r="H20">
-        <v>3.415754619906981</v>
+        <v>3.343807170260423</v>
       </c>
       <c r="I20">
-        <v>3.299935589998918</v>
+        <v>3.062490727292747</v>
       </c>
       <c r="J20">
-        <v>10.16200609962387</v>
+        <v>10.6339424274431</v>
       </c>
       <c r="K20">
-        <v>15.64018755495847</v>
+        <v>14.34638787968014</v>
       </c>
       <c r="L20">
-        <v>7.070184652008153</v>
+        <v>11.62735020221188</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>9.602572831914214</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.044510254307503</v>
       </c>
       <c r="O20">
-        <v>25.44067262005133</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>16.68530501471486</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>19.04747888872121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>24.79265399375457</v>
+      </c>
+      <c r="R20">
+        <v>16.05279981848565</v>
+      </c>
+      <c r="S20">
+        <v>19.12849716089273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.98848970586493</v>
+        <v>11.99611619867054</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.206771485496143</v>
+        <v>7.209569403869798</v>
       </c>
       <c r="E21">
-        <v>10.80853367998979</v>
+        <v>10.7833379465701</v>
       </c>
       <c r="F21">
-        <v>28.2972252414787</v>
+        <v>28.07260946491702</v>
       </c>
       <c r="G21">
-        <v>37.63399115806364</v>
+        <v>39.94510903220488</v>
       </c>
       <c r="H21">
-        <v>3.721071849888106</v>
+        <v>3.628418189016751</v>
       </c>
       <c r="I21">
-        <v>3.222822219126904</v>
+        <v>2.999456564516038</v>
       </c>
       <c r="J21">
-        <v>10.53004958930057</v>
+        <v>9.778669789911838</v>
       </c>
       <c r="K21">
-        <v>15.80056936109816</v>
+        <v>14.49542247387265</v>
       </c>
       <c r="L21">
-        <v>7.153088448685718</v>
+        <v>11.99896355748942</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>9.486198629785255</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.126952919358577</v>
       </c>
       <c r="O21">
-        <v>27.04589678891873</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>17.09343202468834</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>20.00482884394009</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>26.19712321690583</v>
+      </c>
+      <c r="R21">
+        <v>16.46358880780798</v>
+      </c>
+      <c r="S21">
+        <v>19.75569836262371</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.38923819593803</v>
+        <v>12.41504631970869</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.270334079155568</v>
+        <v>7.315660063452949</v>
       </c>
       <c r="E22">
-        <v>10.90278245297208</v>
+        <v>10.89878263907825</v>
       </c>
       <c r="F22">
-        <v>29.1083412718726</v>
+        <v>28.63265784874211</v>
       </c>
       <c r="G22">
-        <v>38.94115456160856</v>
+        <v>42.53122484504498</v>
       </c>
       <c r="H22">
-        <v>3.90806071546662</v>
+        <v>3.802164741849985</v>
       </c>
       <c r="I22">
-        <v>3.162967903795471</v>
+        <v>2.946265639282647</v>
       </c>
       <c r="J22">
-        <v>10.75066639012057</v>
+        <v>9.159872939598866</v>
       </c>
       <c r="K22">
-        <v>15.88425116255955</v>
+        <v>14.57789223693363</v>
       </c>
       <c r="L22">
-        <v>7.193760836849829</v>
+        <v>12.23753396870696</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>9.397412576756658</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.166875798532146</v>
       </c>
       <c r="O22">
-        <v>27.95795424234846</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>17.34740520313348</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>20.57579378433457</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>27.00556405906995</v>
+      </c>
+      <c r="R22">
+        <v>16.72250584942715</v>
+      </c>
+      <c r="S22">
+        <v>20.09823944640574</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.21171213515303</v>
+        <v>12.22280457835344</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.2381544373429</v>
+        <v>7.253664927691017</v>
       </c>
       <c r="E23">
-        <v>10.85628003515553</v>
+        <v>10.83705941685985</v>
       </c>
       <c r="F23">
-        <v>28.68239887674359</v>
+        <v>28.37891797828083</v>
       </c>
       <c r="G23">
-        <v>38.25296286566095</v>
+        <v>40.96194023653148</v>
       </c>
       <c r="H23">
-        <v>3.808402011801607</v>
+        <v>3.710955696303529</v>
       </c>
       <c r="I23">
-        <v>3.183837407222017</v>
+        <v>2.961122750786445</v>
       </c>
       <c r="J23">
-        <v>10.63436093877029</v>
+        <v>9.618640899410744</v>
       </c>
       <c r="K23">
-        <v>15.80350617868982</v>
+        <v>14.50253036416319</v>
       </c>
       <c r="L23">
-        <v>7.17371750526699</v>
+        <v>12.08645362247391</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>9.420061673205762</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.14710423657132</v>
       </c>
       <c r="O23">
-        <v>27.45386947065682</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>17.19194755895723</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>20.27499907928615</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>26.57490600725663</v>
+      </c>
+      <c r="R23">
+        <v>16.56477914065467</v>
+      </c>
+      <c r="S23">
+        <v>19.95421488230043</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.44579958062043</v>
+        <v>11.41091342933496</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.114120233446503</v>
+        <v>7.059640240870155</v>
       </c>
       <c r="E24">
-        <v>10.67266588134049</v>
+        <v>10.62002107943697</v>
       </c>
       <c r="F24">
-        <v>27.02628315504326</v>
+        <v>27.16591053433127</v>
       </c>
       <c r="G24">
-        <v>35.5555803696118</v>
+        <v>35.96105836922938</v>
       </c>
       <c r="H24">
-        <v>3.424094626945097</v>
+        <v>3.352221373377411</v>
       </c>
       <c r="I24">
-        <v>3.283213334075988</v>
+        <v>3.041890194086272</v>
       </c>
       <c r="J24">
-        <v>10.18957693378171</v>
+        <v>10.67058050554944</v>
       </c>
       <c r="K24">
-        <v>15.56810836533603</v>
+        <v>14.28951282183922</v>
       </c>
       <c r="L24">
-        <v>7.09392303180479</v>
+        <v>11.58323344581869</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>9.559090349313482</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.06959377827685</v>
       </c>
       <c r="O24">
-        <v>25.49412056619591</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>16.63121084591692</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>19.10870171531508</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>24.85262500894412</v>
+      </c>
+      <c r="R24">
+        <v>16.00497303002248</v>
+      </c>
+      <c r="S24">
+        <v>19.19163197919534</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.537755398999671</v>
+        <v>10.46004775283153</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.98174159045803</v>
+        <v>6.924425828512761</v>
       </c>
       <c r="E25">
-        <v>10.47091760475397</v>
+        <v>10.41788368808669</v>
       </c>
       <c r="F25">
-        <v>25.17190352239161</v>
+        <v>25.35773350755809</v>
       </c>
       <c r="G25">
-        <v>32.47386676947516</v>
+        <v>32.60863694461229</v>
       </c>
       <c r="H25">
-        <v>2.99322465521513</v>
+        <v>2.932379396948078</v>
       </c>
       <c r="I25">
-        <v>3.396709679962092</v>
+        <v>3.136188198707555</v>
       </c>
       <c r="J25">
-        <v>9.706938258178726</v>
+        <v>10.3280058432413</v>
       </c>
       <c r="K25">
-        <v>15.34036512412503</v>
+        <v>14.10854807242582</v>
       </c>
       <c r="L25">
-        <v>7.004743104873362</v>
+        <v>11.11576539945858</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>9.741485900189398</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.981501207328414</v>
       </c>
       <c r="O25">
-        <v>23.26097361813371</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>16.01885321311637</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>17.80654411523694</v>
+        <v>22.66083322786217</v>
+      </c>
+      <c r="R25">
+        <v>15.42015803417252</v>
+      </c>
+      <c r="S25">
+        <v>17.93375663633658</v>
       </c>
     </row>
   </sheetData>
